--- a/交屋稅費計算機pro.xlsx
+++ b/交屋稅費計算機pro.xlsx
@@ -1023,7 +1023,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="180" customHeight="1">
+    <row r="16" ht="200" customHeight="1">
       <c r="A16" s="14" t="inlineStr">
         <is>
           <t>地價稅</t>
@@ -1046,11 +1046,11 @@
         <v/>
       </c>
       <c r="F16" s="17">
-        <f>IF(E16=0, "無需找補", IF(B12&lt;&gt;"", "納稅人為【" &amp; AB8 &amp; "】，" &amp; IF(AB8="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D16, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB8="賣方", AB11, AB10) &amp; " / " &amp; AB3 &amp; ") (持有比例) = " &amp; TEXT(E16, "#,##0") &amp; CHAR(10), "納稅人為【" &amp; AB8 &amp; "】，" &amp; IF(AB8="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【年稅額計算】" &amp; CHAR(10) &amp; "   地價總額 = " &amp; TEXT(B5,"#,##0") &amp; " * " &amp; TEXT(B6,"#,##0") &amp; " * " &amp; TEXT(AA3/100,"0.00%") &amp; " = " &amp; TEXT(ROUND(B5*B6*(AA3/100),0),"#,##0") &amp; CHAR(10) &amp; "   應繳地價稅 = " &amp; TEXT(ROUND(B5*B6*(AA3/100),0),"#,##0") &amp; " * " &amp; TEXT(VLOOKUP(B8,稅率表!$D$2:$E$3,2,FALSE),"0.0%") &amp; " = " &amp; TEXT(D16,"#,##0") &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D16, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB8="賣方", AB11, AB10) &amp; " / " &amp; AB3 &amp; ") (持有比例) = " &amp; TEXT(E16, "#,##0") &amp; CHAR(10)) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅年度： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 (1/1 ~ 12/31)" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 11 月 1 日 至 11 月 30 日" &amp; CHAR(10) &amp; "● 納稅基準日： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 8 月 31 日" &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB8 &amp; "】 (以基準日之地政登記所有權人為準)")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="180" customHeight="1">
+        <f>IF(E16=0, "無需找補", IF(B12&lt;&gt;"", "納稅人為【" &amp; AB8 &amp; "】，" &amp; IF(AB8="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D16, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB8="賣方", AB11, AB10) &amp; " / " &amp; AB3 &amp; ") (持有比例) = " &amp; TEXT(E16, "#,##0") &amp; CHAR(10), "納稅人為【" &amp; AB8 &amp; "】，" &amp; IF(AB8="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【年稅額計算】" &amp; CHAR(10) &amp; "   地價總額 = " &amp; TEXT(B5,"#,##0") &amp; " * " &amp; TEXT(B6,"#,##0") &amp; " * " &amp; TEXT(AA3/100,"0.00%") &amp; " = " &amp; TEXT(ROUND(B5*B6*(AA3/100),0),"#,##0") &amp; CHAR(10) &amp; "   應繳地價稅 = " &amp; TEXT(ROUND(B5*B6*(AA3/100),0),"#,##0") &amp; " * " &amp; TEXT(VLOOKUP(B8,稅率表!$D$2:$E$3,2,FALSE),"0.0%") &amp; " = " &amp; TEXT(D16,"#,##0") &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D16, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB8="賣方", AB11, AB10) &amp; " / " &amp; AB3 &amp; ") (持有比例) = " &amp; TEXT(E16, "#,##0") &amp; CHAR(10)) &amp; "【款項性質】" &amp; CHAR(10) &amp; "   " &amp; "此為民國 " &amp; YEAR(AA2)-1911 &amp; " 年度地價稅找補，屬【" &amp; IF(AA2&gt;DATE(YEAR(AA2),8,31), "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅年度： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 (1/1 ~ 12/31)" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 11 月 1 日 至 11 月 30 日" &amp; CHAR(10) &amp; "● 納稅基準日： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 8 月 31 日" &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB8 &amp; "】 (以基準日之地政登記所有權人為準)")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="200" customHeight="1">
       <c r="A17" s="14" t="inlineStr">
         <is>
           <t>房屋稅</t>
@@ -1073,7 +1073,7 @@
         <v/>
       </c>
       <c r="F17" s="17">
-        <f>IF(E17=0, "無需找補", IF(B13&lt;&gt;"", "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D17, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E17, "#,##0") &amp; CHAR(10), "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【年稅額計算】" &amp; CHAR(10) &amp; "   應繳房屋稅 = " &amp; IF(AA9&gt;0, "(" &amp; TEXT(AA8,"#,##0") &amp; "-" &amp; TEXT(AA9,"#,##0") &amp; ")", TEXT(AA10,"#,##0")) &amp; " * " &amp; TEXT(D10,"0.0%") &amp; " = " &amp; TEXT(D17, "#,##0") &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D17, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E17, "#,##0") &amp; CHAR(10)) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅期間： 民國 " &amp; YEAR(AB4)-1911 &amp; "/7/1 至 " &amp; YEAR(AB5)-1911 &amp; "/6/30" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AB5)-1911 &amp; " 年 5 月 1 日 至 5 月 31 日" &amp; CHAR(10) &amp; "● 納稅基準日： " &amp; TEXT(AB7, "民國 e 年 m 月 d 日") &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB9 &amp; "】 (以基準日之房屋所有權人為準)")</f>
+        <f>IF(E17=0, "無需找補", IF(B13&lt;&gt;"", "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D17, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E17, "#,##0") &amp; CHAR(10), "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【年稅額計算】" &amp; CHAR(10) &amp; "   應繳房屋稅 = " &amp; IF(AA9&gt;0, "(" &amp; TEXT(AA8,"#,##0") &amp; "-" &amp; TEXT(AA9,"#,##0") &amp; ")", TEXT(AA10,"#,##0")) &amp; " * " &amp; TEXT(D10,"0.0%") &amp; " = " &amp; TEXT(D17, "#,##0") &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D17, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E17, "#,##0") &amp; CHAR(10)) &amp; "【款項性質】" &amp; CHAR(10) &amp; "   " &amp; "此為民國 " &amp; YEAR(AB5)-1911 &amp; " 年度房屋稅找補，屬【" &amp; IF(AA2&gt;AB7, "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅期間： 民國 " &amp; YEAR(AB4)-1911 &amp; "/7/1 至 " &amp; YEAR(AB5)-1911 &amp; "/6/30" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AB5)-1911 &amp; " 年 5 月 1 日 至 5 月 31 日" &amp; CHAR(10) &amp; "● 納稅基準日： " &amp; TEXT(AB7, "民國 e 年 m 月 d 日") &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB9 &amp; "】 (以基準日之房屋所有權人為準)")</f>
         <v/>
       </c>
     </row>

--- a/交屋稅費計算機pro.xlsx
+++ b/交屋稅費計算機pro.xlsx
@@ -334,7 +334,8 @@
     </comment>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
-        <t>此選項將影響交屋當日費用歸屬：\n● 否 (預設)：交屋日歸【賣方】負責。
+        <t>此選項將影響交屋當日費用歸屬：
+● 否 (預設)：交屋日歸【賣方】負責。
 ● 是：交屋日歸【買方】負責。</t>
       </text>
     </comment>
@@ -719,9 +720,9 @@
       </c>
       <c r="D2" s="5" t="n"/>
       <c r="E2" s="6">
-        <f>IF(AA1="","",IF(MOD(YEAR(AA1)-1911,2)=1, "【注意】\n民國 " &amp; YEAR(AA1)-1911 &amp; " 年為地價調整年！
-前一年稅單僅供參考。", "【資訊】
-民國 " &amp; YEAR(AA1)-1911 &amp; " 年非地價調整年。"))</f>
+        <f>IF(AA1="","",IF(MOD(YEAR(AA1)-1911,2)=1, "【注意】
+民國 " &amp; YEAR(AA1)-1911 &amp; " 年為地價調整年！
+前一年稅單僅供參考。", "【資訊】\n民國 " &amp; YEAR(AA1)-1911 &amp; " 年非地價調整年。"))</f>
         <v/>
       </c>
       <c r="F2" s="5" t="n"/>
@@ -1071,7 +1072,7 @@
         <v/>
       </c>
       <c r="F17" s="17">
-        <f>IF(E17=0, "無需找補", IF(B13&lt;&gt;"", "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D17, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E17, "#,##0") &amp; CHAR(10), "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【年稅額計算】" &amp; CHAR(10) &amp; "   應繳房屋稅 = " &amp; IF(AA9&gt;0, "(" &amp; TEXT(AA8,"#,##0") &amp; "-" &amp; TEXT(AA9,"#,##0") &amp; ")", TEXT(AA10,"#,##0")) &amp; " * " &amp; TEXT(D10,"0.0%") &amp; " = " &amp; TEXT(D17, "#,##0") &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D17, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E17, "#,##0") &amp; CHAR(10)) &amp; "【款項性質】" &amp; CHAR(10) &amp; "   " &amp; "此為民國 " &amp; YEAR(AB5)-1911 &amp; " 年度房屋稅找補，屬【" &amp; IF(AA2&gt;AB7, "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅期間： 民國 " &amp; YEAR(AB4)-1911 &amp; "/7/1 至 " &amp; YEAR(AB5)-1911 &amp; "/6/30" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AB5)-1911 &amp; " 年 5 月 1 日 至 5 月 31 日" &amp; CHAR(10) &amp; "● 納稅基準日： " &amp; TEXT(AB7, "民國 e 年 m 月 d 日") &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB9 &amp; "】 (以基準日之房屋所有權人為準)")</f>
+        <f>IF(E17=0, "無需找補", IF(B13&lt;&gt;"", "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D17, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E17, "#,##0") &amp; CHAR(10), "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【年稅額計算】" &amp; CHAR(10) &amp; "   應繳房屋稅 = " &amp; IF(AA9&gt;0, "(\" &amp; TEXT(AA8,"#,##0") &amp; "-\" &amp; TEXT(AA9,"#,##0") &amp; "\")", TEXT(AA10,"#,##0")) &amp; " * " &amp; TEXT(D10,"0.0%") &amp; " = " &amp; TEXT(D17, "#,##0") &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D17, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E17, "#,##0") &amp; CHAR(10)) &amp; "【款項性質】" &amp; CHAR(10) &amp; "   " &amp; "此為民國 " &amp; YEAR(AB5)-1911 &amp; " 年度房屋稅找補，屬【" &amp; IF(AA2&gt;AB7, "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅期間： 民國 " &amp; YEAR(AB4)-1911 &amp; "/7/1 至 " &amp; YEAR(AB5)-1911 &amp; "/6/30" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AB5)-1911 &amp; " 年 5 月 1 日 至 5 月 31 日" &amp; CHAR(10) &amp; "● 納稅基準日： " &amp; TEXT(AB7, "民國 e 年 m 月 d 日") &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB9 &amp; "】 (以基準日之房屋所有權人為準)")</f>
         <v/>
       </c>
     </row>
@@ -1170,10 +1171,6 @@
       <c r="D23" s="5" t="n"/>
       <c r="E23" s="5" t="n"/>
       <c r="F23" s="5" t="n"/>
-      <c r="AB23">
-        <f>AB21+AB22</f>
-        <v/>
-      </c>
     </row>
     <row r="24" ht="32" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -1199,13 +1196,13 @@
     <row r="25" ht="32" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>其他費用找補金額 (管理費、清潔費)</t>
+          <t>其他費用找補金額 (管理費、清潔費、押金)</t>
         </is>
       </c>
       <c r="B25" s="5" t="n"/>
       <c r="C25" s="5" t="n"/>
       <c r="D25" s="22">
-        <f>AB23</f>
+        <f>ABS(SUM(C32:C34)-SUM(D32:D34))</f>
         <v/>
       </c>
       <c r="E25" s="5" t="n"/>
@@ -1217,7 +1214,7 @@
     </row>
     <row r="26" ht="32" customHeight="1">
       <c r="A26" s="14">
-        <f>IF(D25&gt;0, "買方應補貼賣方 NT$ " &amp; TEXT(D25, "#,##0") &amp; " 元", "管理費、車位費無需找補")</f>
+        <f>IF(SUM(C32:C34)&gt;SUM(D32:D34), "【買方】應補貼【賣方】 NT$ " &amp; TEXT(D25, "#,##0") &amp; " 元", IF(SUM(D32:D34)&gt;SUM(C32:C34), "【賣方】應補貼【買方】 NT$ " &amp; TEXT(D25, "#,##0") &amp; " 元", "管理費、車位費、押金無需找補"))</f>
         <v/>
       </c>
       <c r="B26" s="5" t="n"/>

--- a/交屋稅費計算機pro.xlsx
+++ b/交屋稅費計算機pro.xlsx
@@ -722,7 +722,8 @@
       <c r="E2" s="6">
         <f>IF(AA1="","",IF(MOD(YEAR(AA1)-1911,2)=1, "【注意】
 民國 " &amp; YEAR(AA1)-1911 &amp; " 年為地價調整年！
-前一年稅單僅供參考。", "【資訊】\n民國 " &amp; YEAR(AA1)-1911 &amp; " 年非地價調整年。"))</f>
+前一年稅單僅供參考。", "【資訊】
+民國 " &amp; YEAR(AA1)-1911 &amp; " 年非地價調整年。"))</f>
         <v/>
       </c>
       <c r="F2" s="5" t="n"/>

--- a/交屋稅費計算機pro.xlsx
+++ b/交屋稅費計算機pro.xlsx
@@ -1734,152 +1734,160 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1962,438 +1970,440 @@
   </sheetPr>
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="51.88"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="27" style="0" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="54.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="27" style="1" width="11.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="AA1" s="2" t="n">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="AA1" s="3" t="n">
         <f aca="false">IFERROR(IF(LEN(C2)=7, DATE(VALUE(LEFT(C2,3))+1911, VALUE(MID(C2,4,2)), VALUE(RIGHT(C2,2))), IF(LEN(C2)=6, DATE(VALUE(LEFT(C2,2))+1911, VALUE(MID(C2,3,2)), VALUE(RIGHT(C2,2))), "")), "")</f>
         <v>45901</v>
       </c>
-      <c r="AB1" s="0" t="n">
+      <c r="AB1" s="1" t="n">
         <f aca="false">IF(C15&lt;&gt;"", C15, AA15)</f>
         <v>8913</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="n">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="n">
         <v>1140901</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="6" t="str">
         <f aca="false">IF(AA1&lt;&gt;"", TEXT(AA1, "民國 e 年 m 月 d 日"), "請依左側格式輸入日期")</f>
         <v>民國 114 年 9 月 1 日</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="str">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="str">
         <f aca="false">IF(AA1="","",IF(MOD(YEAR(AA1)-1911,2)=1, "【注意】\n民國 " &amp; YEAR(AA1)-1911 &amp; " 年為地價調整年！\n前一年稅單僅供參考。", "【資訊】\n民國 " &amp; YEAR(AA1)-1911 &amp; " 年非地價調整年。"))</f>
         <v>【資訊】\n民國 114 年非地價調整年。</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="AA2" s="2" t="n">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="AA2" s="3" t="n">
         <f aca="false">IFERROR(IF(LEN(C3)=7, DATE(VALUE(LEFT(C3,3))+1911, VALUE(MID(C3,4,2)), VALUE(RIGHT(C3,2))), IF(LEN(C3)=6, DATE(VALUE(LEFT(C3,2))+1911, VALUE(MID(C3,3,2)), VALUE(RIGHT(C3,2))), "")), "")</f>
         <v>45930</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2" s="1" t="n">
         <f aca="false">IF(C16&lt;&gt;"", C16, IFERROR(ROUND(AA18*VLOOKUP(C13, 稅率表!$A$2:$B$15, 2, FALSE()),0), ""))</f>
         <v>32847</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="n">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="n">
         <v>1140930</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="6" t="str">
         <f aca="false">IF(AA2&lt;&gt;"", TEXT(AA2, "民國 e 年 m 月 d 日"), "請依左側格式輸入日期")</f>
         <v>民國 114 年 9 月 30 日</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="AB3" s="0" t="n">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="AB3" s="1" t="n">
         <f aca="false">IF(AA5, 12, IFERROR(DATE(YEAR(AA2),12,31)-DATE(YEAR(AA2),1,1)+1, ""))</f>
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="str">
+      <c r="D4" s="8" t="str">
         <f aca="false">IF(AA5, "【按月分算模式】", "【按日分算模式】") &amp; " 交屋日歸屬：" &amp; IF(C4="是", "買方", "賣方")</f>
         <v>【按月分算模式】 交屋日歸屬：賣方</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="AA4" s="0" t="n">
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="AA4" s="1" t="n">
         <f aca="false">IF(C4="是", 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AB4" s="1" t="n">
         <f aca="false">IFERROR(DATE(YEAR(AA2)-IF(MONTH(AA2)&lt;7,1,0),7,1), "")</f>
         <v>45839</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="AA5" s="9" t="b">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="AA5" s="10" t="b">
         <f aca="false">IF(AA2="","",AND(DAY(EOMONTH(AA2,0))=DAY(AA2), C4="否"))</f>
         <v>1</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AB5" s="1" t="n">
         <f aca="false">IFERROR(DATE(YEAR(AA2)-IF(MONTH(AA2)&lt;7,1,0)+1,6,30), "")</f>
         <v>46203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="AB6" s="0" t="n">
+      <c r="H6" s="13"/>
+      <c r="AB6" s="1" t="n">
         <f aca="false">IF(AA5, 12, IFERROR(AB5-AB4+1, ""))</f>
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="15" t="n">
         <v>70</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G7" s="17" t="n">
         <f aca="false">IFERROR(C7*D7*AA7, "")</f>
         <v>0</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="AA7" s="0" t="n">
+      <c r="H7" s="13"/>
+      <c r="AA7" s="1" t="n">
         <f aca="false">IFERROR(IF(ISNUMBER(FIND("/",E7)), LEFT(E7, FIND("/", E7)-1) / MID(E7, FIND("/", E7)+1, LEN(E7)), IF(ISNUMBER(FIND("%",E7)), VALUE(SUBSTITUTE(E7,"%",""))/100, IF(ISNUMBER(E7), E7/100, 1))), 1)</f>
         <v>1</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AB7" s="1" t="n">
         <f aca="false">IFERROR(EOMONTH(DATE(YEAR(AB5),2,1),0), "")</f>
         <v>46081</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="15" t="n">
         <v>155091.2</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="15" t="n">
         <v>449</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="17" t="n">
         <f aca="false">IFERROR(C8*D8*AA8, "")</f>
         <v>891340.14464</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="AA8" s="0" t="n">
+      <c r="H8" s="13"/>
+      <c r="AA8" s="1" t="n">
         <f aca="false">IFERROR(IF(ISNUMBER(FIND("/",E8)), LEFT(E8, FIND("/", E8)-1) / MID(E8, FIND("/", E8)+1, LEN(E8)), IF(ISNUMBER(FIND("%",E8)), VALUE(SUBSTITUTE(E8,"%",""))/100, IF(ISNUMBER(E8), E8/100, 1))), 1)</f>
         <v>0.0128</v>
       </c>
-      <c r="AB8" s="0" t="str">
+      <c r="AB8" s="1" t="str">
         <f aca="false">IFERROR(IF(AA1&gt;DATE(YEAR(AA2),8,31), "賣方", "買方"), "")</f>
         <v>賣方</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16" t="n">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="17" t="n">
         <f aca="false">IFERROR(C9*D9*AA9, "")</f>
         <v>0</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="AA9" s="0" t="n">
+      <c r="H9" s="13"/>
+      <c r="AA9" s="1" t="n">
         <f aca="false">IFERROR(IF(ISNUMBER(FIND("/",E9)), LEFT(E9, FIND("/", E9)-1) / MID(E9, FIND("/", E9)+1, LEN(E9)), IF(ISNUMBER(FIND("%",E9)), VALUE(SUBSTITUTE(E9,"%",""))/100, IF(ISNUMBER(E9), E9/100, 1))), 1)</f>
         <v>1</v>
       </c>
-      <c r="AB9" s="0" t="str">
+      <c r="AB9" s="1" t="str">
         <f aca="false">IFERROR(IF(AA1&gt;AB7, "賣方", "買方"), "")</f>
         <v>買方</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="n">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="n">
         <v>1700000</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="AB10" s="0" t="n">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="AB10" s="1" t="n">
         <f aca="false">IFERROR(IF(AA5, MONTH(AA2), AA2-DATE(YEAR(AA2),1,1)+1-AA4),"")</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="AA11" s="0" t="n">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="AA11" s="1" t="n">
         <f aca="false">ROUND(SUMPRODUCT((F7:F9="自用住宅 (2‰)")*G7:G9*0.002),0)</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AB11" s="1" t="n">
         <f aca="false">IFERROR(IF(AA5, 12-MONTH(AA2), DATE(YEAR(AA2),12,31)-AA2+AA4),"")</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="AA12" s="0" t="n">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="AA12" s="1" t="n">
         <f aca="false">SUMPRODUCT((F7:F9&lt;&gt;"自用住宅 (2‰)")*G7:G9)</f>
         <v>891340.14464</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AB12" s="1" t="n">
         <f aca="false">IFERROR(IF(AA5, IF(MONTH(AA2)&gt;=7, MONTH(AA2)-6, MONTH(AA2)+6), AA2-AB4+1-AA4),"")</f>
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="21" t="n">
         <f aca="false">IFERROR(VLOOKUP(C13, 稅率表!$A$2:$B$15, 2, FALSE()), "")</f>
         <v>0.03</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="AA13" s="0" t="n">
+      <c r="E13" s="21"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="AA13" s="1" t="n">
         <f aca="false">IF(C10="",0,C10)</f>
         <v>1700000</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AB13" s="1" t="n">
         <f aca="false">IFERROR(IF(AA5, 12 - IF(MONTH(AA2)&gt;=7, MONTH(AA2)-6, MONTH(AA2)+6), AB5-AA2+AA4),"")</f>
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="AA14" s="0" t="n">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="AA14" s="1" t="n">
         <f aca="false">ROUND(IF(AA13=0, AA12*0.01, IF(AA12&lt;=AA13, AA12*0.01, IF(AA12&lt;=AA13*5, AA12*0.015-AA13*0.005, IF(AA12&lt;=AA13*10, AA12*0.025-AA13*0.065, IF(AA12&lt;=AA13*15, AA12*0.035-AA13*0.175, IF(AA12&lt;=AA13*20, AA12*0.045-AA13*0.335, AA12*0.055-AA13*0.545)))))),0)</f>
         <v>8913</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="22"/>
-      <c r="AA15" s="0" t="n">
+      <c r="B15" s="18"/>
+      <c r="C15" s="23"/>
+      <c r="AA15" s="1" t="n">
         <f aca="false">AA11+AA14</f>
         <v>8913</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="22"/>
-      <c r="AA16" s="0" t="n">
+      <c r="B16" s="18"/>
+      <c r="C16" s="23"/>
+      <c r="AA16" s="1" t="n">
         <f aca="false">IFERROR(IF(ISNUMBER(FIND("-",C12)), VALUE(LEFT(C12, FIND("-",C12)-1)), C12), C12)</f>
         <v>1372200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="AA17" s="0" t="n">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="AA17" s="1" t="n">
         <f aca="false">IFERROR(IF(ISNUMBER(FIND("-",C12)), VALUE(MID(C12, FIND("-",C12)+1, LEN(C12))), 0), 0)</f>
         <v>277300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="180" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+    <row r="18" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="AA18" s="0" t="n">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="AA18" s="1" t="n">
         <f aca="false">IF(ISNUMBER(C12), C12, AA16-AA17)</f>
         <v>1094900</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="180" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+    <row r="19" customFormat="false" ht="206.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="24" t="str">
+      <c r="B19" s="25" t="str">
         <f aca="false">IF(AB10&lt;&gt;"", AB10 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v>9 月</v>
       </c>
-      <c r="C19" s="24" t="str">
+      <c r="C19" s="25" t="str">
         <f aca="false">IF(AB11&lt;&gt;"", AB11 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v>3 月</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="26" t="n">
         <f aca="false">AB1</f>
         <v>8913</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="26" t="n">
         <f aca="false">IFERROR(IF(AB8="賣方", ROUND(D19*AB11/AB3,0), ROUND(D19*AB10/AB3,0)),0)</f>
         <v>2228</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26" t="str">
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="str">
         <f aca="false">IF(E19=0, "無需找補", "納稅人為【" &amp; AB8 &amp; "】，" &amp; IF(AB8="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D19, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB8="賣方", AB11, AB10) &amp; " / " &amp; AB3 &amp; ") (持有比例) = " &amp; TEXT(E19, "#,##0") &amp; CHAR(10) &amp; "【款項性質】" &amp; CHAR(10) &amp; "   " &amp; "此為民國 " &amp; YEAR(AA2)-1911 &amp; " 年度地價稅找補，屬【" &amp; IF(AA2&gt;DATE(YEAR(AA2),8,31), "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅年度： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 (1/1 ~ 12/31)" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 11 月 1 日 至 11 月 30 日" &amp; CHAR(10) &amp; "● 納稅基準日： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 8 月 31 日" &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB8 &amp; "】 (以基準日之地政登記所有權人為準)")</f>
         <v>納稅人為【賣方】，由【買方】補貼賣方。
 【找補計算】
@@ -2409,28 +2419,28 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="246.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="27" t="str">
+      <c r="B20" s="28" t="str">
         <f aca="false">IF(AB12&lt;&gt;"", AB12 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v>3 月</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="28" t="str">
         <f aca="false">IF(AB13&lt;&gt;"", AB13 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v>9 月</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="26" t="n">
         <f aca="false">AB2</f>
         <v>32847</v>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="26" t="n">
         <f aca="false">IFERROR(IF(AB9="賣方", ROUND(D20*AB13/AB6,0), ROUND(D20*AB12/AB6,0)),0)</f>
         <v>8212</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26" t="str">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27" t="str">
         <f aca="false">IF(E20=0, "無需找補", IF(C16&lt;&gt;"", "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D20, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E20, "#,##0") &amp; CHAR(10), "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【年稅額計算】" &amp; CHAR(10) &amp; "   應繳房屋稅 = " &amp; IF(AA17&gt;0, "(" &amp; TEXT(AA16,"#,##0") &amp; "-" &amp; TEXT(AA17,"#,##0") &amp; ")", TEXT(AA18,"#,##0")) &amp; " * " &amp; TEXT(D13,"0.0%") &amp; " = " &amp; TEXT(D20, "#,##0") &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D20, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E20, "#,##0") &amp; CHAR(10)) &amp; "【款項性質】" &amp; CHAR(10) &amp; "   " &amp; "此為民國 " &amp; YEAR(AB5)-1911 &amp; " 年度房屋稅找補，屬【" &amp; IF(AA2&gt;AB7, "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅期間： 民國 " &amp; YEAR(AB4)-1911 &amp; "/7/1 至 " &amp; YEAR(AB5)-1911 &amp; "/6/30" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AB5)-1911 &amp; " 年 5 月 1 日 至 5 月 31 日" &amp; CHAR(10) &amp; "● 納稅基準日： " &amp; TEXT(AB7, "民國 e 年 m 月 d 日") &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB9 &amp; "】 (以基準日之房屋所有權人為準)")</f>
         <v>納稅人為【買方】，由【賣方】補貼買方。
 【年稅額計算】
@@ -2446,455 +2456,455 @@
 ● 納稅基準日： 民國 115 年 2 月 28 日
 ● 本案納稅人： 【買方】 (以基準日之房屋所有權人為準)</v>
       </c>
-      <c r="AA20" s="2" t="n">
+      <c r="AA20" s="3" t="n">
         <f aca="false">IFERROR(IF(LEN(F22)=7, DATE(VALUE(LEFT(F22,3))+1911, VALUE(MID(F22,4,2)), VALUE(RIGHT(F22,2))), IF(LEN(F22)=6, DATE(VALUE(LEFT(F22,2))+1911, VALUE(MID(F22,3,2)), VALUE(RIGHT(F22,2))), "")), "")</f>
         <v>45961</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="AA21" s="2" t="n">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="AA21" s="3" t="n">
         <f aca="false">IFERROR(IF(LEN(F23)=7, DATE(VALUE(LEFT(F23,3))+1911, VALUE(MID(F23,4,2)), VALUE(RIGHT(F23,2))), IF(LEN(F23)=6, DATE(VALUE(LEFT(F23,2))+1911, VALUE(MID(F23,3,2)), VALUE(RIGHT(F23,2))), "")), "")</f>
         <v>45961</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AB21" s="1" t="n">
         <f aca="false">IFERROR(IF(AND(B22&gt;0, AA20&gt;=AA2), IF((YEAR(AA20)=YEAR(AA2))*(MONTH(AA20)=MONTH(AA2)), ROUND(B22*(AA20-AA2+AA4)/DAY(EOMONTH(AA2,0)),0), ROUND((B22*(DAY(EOMONTH(AA2,0))-DAY(AA2)+AA4)/DAY(EOMONTH(AA2,0))) + (B22*MAX(0,(YEAR(AA20)-YEAR(AA2))*12+MONTH(AA20)-MONTH(AA2)-1)) + (B22*DAY(AA20)/DAY(EOMONTH(AA20,0))),0)), 0), 0)</f>
         <v>4430</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="28" t="n">
+      <c r="B22" s="29" t="n">
         <v>4430</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="28" t="n">
+      <c r="E22" s="14"/>
+      <c r="F22" s="29" t="n">
         <v>1141031</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="6" t="str">
         <f aca="false">IF(AA20&lt;&gt;"", TEXT(AA20, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v>民國 114 年 10 月 31 日</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="AA22" s="2" t="n">
+      <c r="H22" s="6"/>
+      <c r="AA22" s="3" t="n">
         <f aca="false">IFERROR(IF(LEN(B25)=7, DATE(VALUE(LEFT(B25,3))+1911, VALUE(MID(B25,4,2)), VALUE(RIGHT(B25,2))), IF(LEN(B25)=6, DATE(VALUE(LEFT(B25,2))+1911, VALUE(MID(B25,3,2)), VALUE(RIGHT(B25,2))), "")), "")</f>
         <v>45930</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AB22" s="1" t="n">
         <f aca="false">IFERROR(IF(AND(B23&gt;0, AA21&gt;=AA2), IF((YEAR(AA21)=YEAR(AA2))*(MONTH(AA21)=MONTH(AA2)), ROUND(B23*(AA21-AA2+AA4)/DAY(EOMONTH(AA2,0)),0), ROUND((B23*(DAY(EOMONTH(AA2,0))-DAY(AA2)+AA4)/DAY(EOMONTH(AA2,0))) + (B23*MAX(0,(YEAR(AA21)-YEAR(AA2))*12+MONTH(AA21)-MONTH(AA2)-1)) + (B23*DAY(AA21)/DAY(EOMONTH(AA21,0))),0)), 0), 0)</f>
         <v>1200</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="28" t="n">
+      <c r="B23" s="29" t="n">
         <v>1200</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="28" t="n">
+      <c r="E23" s="14"/>
+      <c r="F23" s="29" t="n">
         <v>1141031</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="6" t="str">
         <f aca="false">IF(AA21&lt;&gt;"", TEXT(AA21, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v>民國 114 年 10 月 31 日</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="AA23" s="2" t="n">
+      <c r="H23" s="6"/>
+      <c r="AA23" s="3" t="n">
         <f aca="false">IFERROR(IF(LEN(B26)=7, DATE(VALUE(LEFT(B26,3))+1911, VALUE(MID(B26,4,2)), VALUE(RIGHT(B26,2))), IF(LEN(B26)=6, DATE(VALUE(LEFT(B26,2))+1911, VALUE(MID(B26,3,2)), VALUE(RIGHT(B26,2))), "")), "")</f>
         <v>45915</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="28" t="n">
+      <c r="B24" s="29" t="n">
         <v>28300</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="AA24" s="2" t="n">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="AA24" s="3" t="n">
         <f aca="false">IFERROR(IF(LEN(B27)=7, DATE(VALUE(LEFT(B27,3))+1911, VALUE(MID(B27,4,2)), VALUE(RIGHT(B27,2))), IF(LEN(B27)=6, DATE(VALUE(LEFT(B27,2))+1911, VALUE(MID(B27,3,2)), VALUE(RIGHT(B27,2))), "")), "")</f>
         <v>45944</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AB24" s="1" t="n">
         <f aca="false">IFERROR(IF(AND(B22&gt;0, AA20&lt;AA2), ROUND((B22*(DAY(EOMONTH(AA20,0))-DAY(AA20))/DAY(EOMONTH(AA20,0))) + (B22*MAX(0,(YEAR(AA2)-YEAR(AA20))*12+MONTH(AA2)-MONTH(AA20)-1)) + (B22*DAY(AA2)/DAY(EOMONTH(AA2,0))),0), 0), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="28" t="n">
+      <c r="B25" s="29" t="n">
         <v>1140930</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C25" s="6" t="str">
         <f aca="false">IF(AA22&lt;&gt;"", TEXT(AA22, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v>民國 114 年 9 月 30 日</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="AB25" s="0" t="n">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="AB25" s="1" t="n">
         <f aca="false">IFERROR(IF(AND(B23&gt;0, AA21&lt;AA2), ROUND((B23*(DAY(EOMONTH(AA21,0))-DAY(AA21))/DAY(EOMONTH(AA21,0))) + (B23*MAX(0,(YEAR(AA2)-YEAR(AA21))*12+MONTH(AA2)-MONTH(AA21)-1)) + (B23*DAY(AA2)/DAY(EOMONTH(AA2,0))),0), 0), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="28" t="n">
+      <c r="B26" s="29" t="n">
         <v>1140915</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C26" s="6" t="str">
         <f aca="false">IF(AA23&lt;&gt;"", TEXT(AA23, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v>民國 114 年 9 月 15 日</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="28" t="n">
+      <c r="B27" s="29" t="n">
         <v>1141014</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C27" s="6" t="str">
         <f aca="false">IF(AA24&lt;&gt;"", TEXT(AA24, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v>民國 114 年 10 月 14 日</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="28" t="n">
+      <c r="B28" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="28" t="n">
+      <c r="B29" s="29" t="n">
         <v>110</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="28" t="n">
+      <c r="B30" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="AB30" s="0" t="n">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="AB30" s="1" t="n">
         <f aca="false">IFERROR(IF(AND(C4="是", B24&gt;0, AA24&gt;=AA2, AA23&lt;=AA2, AA22&gt;=AA2), ROUND(B24 * (AA2-AA23+1) / (AA24-AA23+1), 0), 0), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="28" t="n">
+      <c r="B31" s="29" t="n">
         <v>5000</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="AB31" s="0" t="n">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="AB31" s="1" t="n">
         <f aca="false">IFERROR(IF(AND(C4="是", B24&gt;0, AA24&gt;=AA2, AA23&lt;=AA2, AA22&lt;AA2), ROUND(B24 * (AA24-AA2) / (AA24-AA23+1), 0), 0), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="29" t="n">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31" t="n">
         <f aca="false">IF(AB8="賣方", E19, 0)</f>
         <v>2228</v>
       </c>
-      <c r="E35" s="30" t="n">
+      <c r="E35" s="32" t="n">
         <f aca="false">IF(AB8="買方", E19, 0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="29" t="n">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31" t="n">
         <f aca="false">IF(AB9="賣方", E20, 0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="30" t="n">
+      <c r="E36" s="32" t="n">
         <f aca="false">IF(AB9="買方", E20, 0)</f>
         <v>8212</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="29" t="n">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31" t="n">
         <f aca="false">AB24</f>
         <v>0</v>
       </c>
-      <c r="E37" s="30" t="n">
+      <c r="E37" s="32" t="n">
         <f aca="false">AB21</f>
         <v>4430</v>
       </c>
-      <c r="F37" s="31" t="str">
+      <c r="F37" s="33" t="str">
         <f aca="false">IF(D37&gt;0, "月費 " &amp; TEXT(B22, "#,##0") &amp; " 元，賣方僅繳納至 " &amp; TEXT(AA20, "e/m/d") &amp; "。", IF(E37&gt;0, "月費 " &amp; TEXT(B22, "#,##0") &amp; " 元，賣方已預繳至 " &amp; TEXT(AA20, "e/m/d") &amp; "。", "無需找補"))</f>
         <v>月費 4,430 元，賣方已預繳至 114/10/31。</v>
       </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="29" t="n">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31" t="n">
         <f aca="false">AB25</f>
         <v>0</v>
       </c>
-      <c r="E38" s="30" t="n">
+      <c r="E38" s="32" t="n">
         <f aca="false">AB22</f>
         <v>1200</v>
       </c>
-      <c r="F38" s="31" t="str">
+      <c r="F38" s="33" t="str">
         <f aca="false">IF(D38&gt;0, "月費 " &amp; TEXT(B23, "#,##0") &amp; " 元，賣方僅繳納至 " &amp; TEXT(AA21, "e/m/d") &amp; "。", IF(E38&gt;0, "月費 " &amp; TEXT(B23, "#,##0") &amp; " 元，賣方已預繳至 " &amp; TEXT(AA21, "e/m/d") &amp; "。", "無需找補"))</f>
         <v>月費 1,200 元，賣方已預繳至 114/10/31。</v>
       </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="29" t="n">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31" t="n">
         <f aca="false">AB30</f>
         <v>0</v>
       </c>
-      <c r="E39" s="30" t="n">
+      <c r="E39" s="32" t="n">
         <f aca="false">AB31</f>
         <v>0</v>
       </c>
-      <c r="F39" s="31" t="str">
+      <c r="F39" s="33" t="str">
         <f aca="false">IF(D39&gt;0, "買方應將賣方持有 " &amp; TEXT(AA2-AA23+1-AA4, "0") &amp; " 天的租金份額 " &amp; TEXT(D39, "#,##0") &amp; " 元結算給賣方。", IF(E39&gt;0, "賣方已預收，應將買方持有 " &amp; TEXT(AA24-AA2+AA4, "0") &amp; " 天的租金份額 " &amp; TEXT(E39, "#,##0") &amp; " 元返還給買方。", "無需找補"))</f>
         <v>無需找補</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="29" t="n">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31" t="n">
         <f aca="false">SUM(B28:B30)</f>
         <v>310</v>
       </c>
-      <c r="E40" s="30" t="n">
+      <c r="E40" s="32" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-    </row>
-    <row r="41" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+    </row>
+    <row r="41" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="29" t="n">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="E41" s="30" t="n">
+      <c r="E41" s="32" t="n">
         <f aca="false">B31</f>
         <v>5000</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="29" t="n">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31" t="n">
         <f aca="false">SUM(D35:D41)</f>
         <v>2538</v>
       </c>
-      <c r="E42" s="30" t="n">
+      <c r="E42" s="32" t="n">
         <f aca="false">SUM(E35:E41)</f>
         <v>18842</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33" t="str">
+      <c r="B43" s="34"/>
+      <c r="C43" s="35" t="str">
         <f aca="false">IF(D42&gt;E42, "【買方】應支付給【賣方】 NT$ " &amp; TEXT(D42-E42, "#,##0"), IF(E42&gt;D42, "【賣方】應支付給【買方】 NT$ " &amp; TEXT(E42-D42, "#,##0"), "雙方無需找補"))</f>
         <v>【賣方】應支付給【買方】 NT$ 16,304</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2994,124 +3004,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="36" t="n">
+      <c r="B2" s="38" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="36" t="n">
+      <c r="B3" s="38" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="36" t="n">
+      <c r="B4" s="38" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="36" t="n">
+      <c r="B5" s="38" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="36" t="n">
+      <c r="B6" s="38" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="36" t="n">
+      <c r="B7" s="38" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="36" t="n">
+      <c r="B8" s="38" t="n">
         <v>0.032</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="36" t="n">
+      <c r="B9" s="38" t="n">
         <v>0.038</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="36" t="n">
+      <c r="B10" s="38" t="n">
         <v>0.042</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="36" t="n">
+      <c r="B11" s="38" t="n">
         <v>0.048</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="36" t="n">
+      <c r="B12" s="38" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="36" t="n">
+      <c r="B13" s="38" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="36" t="n">
+      <c r="B14" s="38" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="36"/>
+      <c r="B15" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/交屋稅費計算機pro.xlsx
+++ b/交屋稅費計算機pro.xlsx
@@ -291,9 +291,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">不動產買賣稅費分算計算機 </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+  <si>
+    <t xml:space="preserve">不動產買賣稅費分算計算機 v5.33</t>
   </si>
   <si>
     <t xml:space="preserve">權狀登記(過戶)日期</t>
@@ -669,29 +669,7 @@
     <t xml:space="preserve">最終結算結果</t>
   </si>
   <si>
-    <t xml:space="preserve">© 2025 陳定康. All rights reserved.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2025/10/14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">修正管理費計算錯誤</t>
-    </r>
+    <t xml:space="preserve">工具開發：陳定康</t>
   </si>
   <si>
     <t xml:space="preserve">房屋使用情境選項</t>
@@ -1488,14 +1466,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d"/>
     <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1571,6 +1550,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="0"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
@@ -1587,9 +1572,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="微軟正黑體"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1700,7 +1684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1761,27 +1745,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1789,7 +1777,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1801,7 +1789,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1817,11 +1805,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1833,23 +1825,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1932,8 +1920,8 @@
   </sheetPr>
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1964,7 +1952,7 @@
       </c>
       <c r="AB1" s="0" t="n">
         <f aca="false">IF(C15&lt;&gt;"", C15, AA15)</f>
-        <v>8913</v>
+        <v>8056</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1996,7 +1984,7 @@
       </c>
       <c r="AB2" s="0" t="n">
         <f aca="false">IF(C16&lt;&gt;"", C16, IFERROR(ROUND(AA18*VLOOKUP(C13, 稅率表!$A$2:$B$15, 2, FALSE()),0), ""))</f>
-        <v>13012</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2166,7 +2154,7 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="14"/>
       <c r="G9" s="16" t="n">
         <f aca="false">IFERROR(C9*D9*AA9, "")</f>
@@ -2225,7 +2213,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="12"/>
@@ -2250,11 +2238,11 @@
       <c r="C13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="21" t="n">
         <f aca="false">IFERROR(VLOOKUP(C13, 稅率表!$A$2:$B$15, 2, FALSE()), "")</f>
         <v>0.012</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -2268,16 +2256,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="AA14" s="0" t="n">
         <f aca="false">ROUND(IF(AA13=0, AA12*0.01, IF(AA12&lt;=AA13, AA12*0.01, IF(AA12&lt;=AA13*5, AA12*0.015-AA13*0.005, IF(AA12&lt;=AA13*10, AA12*0.025-AA13*0.065, IF(AA12&lt;=AA13*15, AA12*0.035-AA13*0.175, IF(AA12&lt;=AA13*20, AA12*0.045-AA13*0.335, AA12*0.055-AA13*0.545)))))),0)</f>
         <v>7000</v>
@@ -2288,9 +2276,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="22" t="n">
-        <v>8913</v>
-      </c>
+      <c r="C15" s="23"/>
       <c r="AA15" s="0" t="n">
         <f aca="false">AA11+AA14</f>
         <v>8056</v>
@@ -2301,9 +2287,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="22" t="n">
-        <v>13012</v>
-      </c>
+      <c r="C16" s="23"/>
       <c r="AA16" s="0" t="str">
         <f aca="false">IFERROR(IF(ISNUMBER(FIND("-",C12)), VALUE(LEFT(C12, FIND("-",C12)-1)), C12), C12)</f>
         <v>1000000</v>
@@ -2350,34 +2334,34 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="180" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="24" t="str">
+      <c r="B19" s="25" t="str">
         <f aca="false">IF(AB10&lt;&gt;"", AB10 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v>281 天</v>
       </c>
-      <c r="C19" s="24" t="str">
+      <c r="C19" s="25" t="str">
         <f aca="false">IF(AB11&lt;&gt;"", AB11 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v>84 天</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="26" t="n">
         <f aca="false">AB1</f>
-        <v>8913</v>
-      </c>
-      <c r="E19" s="25" t="n">
+        <v>8056</v>
+      </c>
+      <c r="E19" s="26" t="n">
         <f aca="false">IFERROR(IF(AB8="賣方", ROUND(D19*AB11/AB3,0), ROUND(D19*AB10/AB3,0)),0)</f>
-        <v>2051</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26" t="str">
-        <f aca="false">IF(E19=0, "無需找補", "納稅人為【" &amp; AB8 &amp; "】，" &amp; IF(AB8="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D19, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB8="賣方", AB11, AB10) &amp; " / " &amp; AB3 &amp; ") (持有比例) = " &amp; TEXT(E19, "#,##0") &amp; CHAR(10) &amp; "【款項性質】" &amp; CHAR(10) &amp; "   " &amp; "此為民國 " &amp; YEAR(AA2)-1911 &amp; " 年度地價稅找補，屬【" &amp; IF(AA2&gt;DATE(YEAR(AA2),8,31), "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅年度： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 (1/1 ~ 12/31)" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 11 月 1 日 至 11 月 30 日" &amp; CHAR(10) &amp; "● 納稅基準日： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 8 月 31 日" &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB8 &amp; "】 (以基準日之地政登記所有權人為準)")</f>
+        <v>1854</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="str">
+        <f aca="false">IF(E19=0, "無需找補", "納稅人為【" &amp; AB8 &amp; "】，" &amp; IF(AB8="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "  " &amp; TEXT(D19, "#,##0") &amp; " (年稅額) * " &amp; IF(AB8="賣方", AB11, AB10) &amp; " (天) / " &amp; AB3 &amp; " (總天數) = " &amp; TEXT(E19, "#,##0") &amp; CHAR(10) &amp; "【款項性質】" &amp; CHAR(10) &amp; "  " &amp; "此為民國 " &amp; YEAR(AA2)-1911 &amp; " 年度地價稅找補，屬【" &amp; IF(AA2&gt;DATE(YEAR(AA2),8,31), "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅年度： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 (1/1 ~ 12/31)" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 11 月 1 日 至 11 月 30 日" &amp; CHAR(10) &amp; "● 納稅基準日： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 8 月 31 日" &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB8 &amp; "】 (以基準日之地政登記所有權人為準)")</f>
         <v>納稅人為【賣方】，由【買方】補貼賣方。
 【找補計算】
-   8,913 (年稅額) * (84 / 365) (持有比例) = 2,051
+  8,056 (年稅額) * 84 (天) / 365 (總天數) = 1,854
 【款項性質】
-   此為民國 114 年度地價稅找補，屬【未到期數】款項。
+  此為民國 114 年度地價稅找補，屬【未到期數】款項。
 ---
 【稅務規則】
 ● 課稅年度： 民國 114 年 (1/1 ~ 12/31)
@@ -2387,34 +2371,36 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="27" t="str">
+      <c r="B20" s="28" t="str">
         <f aca="false">IF(AB12&lt;&gt;"", AB12 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v>100 天</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="28" t="str">
         <f aca="false">IF(AB13&lt;&gt;"", AB13 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v>265 天</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="26" t="n">
         <f aca="false">AB2</f>
-        <v>13012</v>
-      </c>
-      <c r="E20" s="25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="26" t="n">
         <f aca="false">IFERROR(IF(AB9="賣方", ROUND(D20*AB13/AB6,0), ROUND(D20*AB12/AB6,0)),0)</f>
-        <v>3565</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26" t="str">
-        <f aca="false">IF(E20=0, "無需找補", IF(C16&lt;&gt;"", "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D20, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E20, "#,##0") &amp; CHAR(10), "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【年稅額計算】" &amp; CHAR(10) &amp; "   應繳房屋稅 = " &amp; IF(AA17&gt;0, "(" &amp; TEXT(AA16,"#,##0") &amp; "-" &amp; TEXT(AA17,"#,##0") &amp; ")", TEXT(AA18,"#,##0")) &amp; " * " &amp; TEXT(D13,"0.0%") &amp; " = " &amp; TEXT(D20, "#,##0") &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "   " &amp; TEXT(D20, "#,##0") &amp; " (年稅額) * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") (持有比例) = " &amp; TEXT(E20, "#,##0") &amp; CHAR(10)) &amp; "【款項性質】" &amp; CHAR(10) &amp; "   " &amp; "此為民國 " &amp; YEAR(AB5)-1911 &amp; " 年度房屋稅找補，屬【" &amp; IF(AA2&gt;AB7, "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅期間： 民國 " &amp; YEAR(AB4)-1911 &amp; "/7/1 至 " &amp; YEAR(AB5)-1911 &amp; "/6/30" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AB5)-1911 &amp; " 年 5 月 1 日 至 5 月 31 日" &amp; CHAR(10) &amp; "● 納稅基準日： " &amp; TEXT(AB7, "民國 e 年 m 月 d 日") &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB9 &amp; "】 (以基準日之房屋所有權人為準)")</f>
+        <v>3288</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27" t="str">
+        <f aca="false">IF(E20=0, "無需找補", "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; IF(C16="", "【年稅額計算】" &amp; CHAR(10) &amp; "  " &amp; IF(AA17&gt;0, "(" &amp; TEXT(AA16,"#,##0") &amp; "-" &amp; TEXT(AA17,"#,##0") &amp; ")", TEXT(AA18,"#,##0")) &amp; " * " &amp; TEXT(D13,"0.0%") &amp; " = " &amp; TEXT(D20, "#,##0") &amp; CHAR(10), "") &amp; "【找補計算】" &amp; CHAR(10) &amp; "  " &amp; TEXT(D20, "#,##0") &amp; " (年稅額) * " &amp; IF(AB9="賣方", AB13, AB12) &amp; " (天) / " &amp; AB6 &amp; " (總天數) = " &amp; TEXT(E20, "#,##0") &amp; CHAR(10) &amp; "【款項性質】" &amp; CHAR(10) &amp; "  " &amp; "此為民國 " &amp; YEAR(AB5)-1911 &amp; " 年度房屋稅找補，屬【" &amp; IF(AA2&gt;AB7, "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅期間： 民國 " &amp; YEAR(AB4)-1911 &amp; "/7/1 至 " &amp; YEAR(AB5)-1911 &amp; "/6/30" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AB5)-1911 &amp; " 年 5 月 1 日 至 5 月 31 日" &amp; CHAR(10) &amp; "● 納稅基準日： " &amp; TEXT(AB7, "民國 e 年 m 月 d 日") &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB9 &amp; "】 (以基準日之房屋所有權人為準)")</f>
         <v>納稅人為【買方】，由【賣方】補貼買方。
+【年稅額計算】
+  1,000,000 * 1.2% = 12,000
 【找補計算】
-   13,012 (年稅額) * (100 / 365) (持有比例) = 3,565
+  12,000 (年稅額) * 100 (天) / 365 (總天數) = 3,288
 【款項性質】
-   此為民國 115 年度房屋稅找補，屬【已到期數】款項。
+  此為民國 115 年度房屋稅找補，屬【已到期數】款項。
 ---
 【稅務規則】
 ● 課稅期間： 民國 114/7/1 至 115/6/30
@@ -2451,7 +2437,7 @@
       <c r="A22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="28" t="n">
+      <c r="B22" s="29" t="n">
         <v>5630</v>
       </c>
       <c r="C22" s="13"/>
@@ -2459,7 +2445,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="28" t="n">
+      <c r="F22" s="29" t="n">
         <v>1141031</v>
       </c>
       <c r="G22" s="5" t="str">
@@ -2467,28 +2453,28 @@
         <v>民國 114 年 10 月 31 日</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="AA22" s="0" t="str">
+      <c r="AA22" s="2" t="n">
         <f aca="false">IFERROR(IF(LEN(B25)=7, DATE(VALUE(LEFT(B25,3))+1911, VALUE(MID(B25,4,2)), VALUE(RIGHT(B25,2))), IF(LEN(B25)=6, DATE(VALUE(LEFT(B25,2))+1911, VALUE(MID(B25,3,2)), VALUE(RIGHT(B25,2))), "")), "")</f>
-        <v/>
+        <v>45931</v>
       </c>
       <c r="AB22" s="0" t="n">
         <f aca="false">IFERROR(IF(AND(B23&gt;0, AA21&gt;=AA2), IF((YEAR(AA21)=YEAR(AA2))*(MONTH(AA21)=MONTH(AA2)), ROUND(B23*(AA21-AA2+AA4)/DAY(EOMONTH(AA2,0)),0), ROUND((B23*(DAY(EOMONTH(AA2,0))-DAY(AA2)+AA4)/DAY(EOMONTH(AA2,0))) + (B23*MAX(0,(YEAR(AA21)-YEAR(AA2))*12+MONTH(AA21)-MONTH(AA2)-1)) + (B23*DAY(AA21)/DAY(EOMONTH(AA21,0))),0)), 0), 0)</f>
-        <v>890</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="28" t="n">
-        <v>1200</v>
+      <c r="B23" s="30" t="n">
+        <v>5630</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="28" t="n">
+      <c r="F23" s="30" t="n">
         <v>1141031</v>
       </c>
       <c r="G23" s="5" t="str">
@@ -2496,17 +2482,17 @@
         <v>民國 114 年 10 月 31 日</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="AA23" s="0" t="str">
+      <c r="AA23" s="2" t="n">
         <f aca="false">IFERROR(IF(LEN(B26)=7, DATE(VALUE(LEFT(B26,3))+1911, VALUE(MID(B26,4,2)), VALUE(RIGHT(B26,2))), IF(LEN(B26)=6, DATE(VALUE(LEFT(B26,2))+1911, VALUE(MID(B26,3,2)), VALUE(RIGHT(B26,2))), "")), "")</f>
-        <v/>
+        <v>45930</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="28" t="n">
-        <v>1200</v>
+      <c r="B24" s="29" t="n">
+        <v>5000</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -2514,9 +2500,9 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="AA24" s="0" t="str">
+      <c r="AA24" s="2" t="n">
         <f aca="false">IFERROR(IF(LEN(B27)=7, DATE(VALUE(LEFT(B27,3))+1911, VALUE(MID(B27,4,2)), VALUE(RIGHT(B27,2))), IF(LEN(B27)=6, DATE(VALUE(LEFT(B27,2))+1911, VALUE(MID(B27,3,2)), VALUE(RIGHT(B27,2))), "")), "")</f>
-        <v/>
+        <v>45959</v>
       </c>
       <c r="AB24" s="0" t="n">
         <f aca="false">IFERROR(IF(AND(B22&gt;0, AA20&lt;AA2), ROUND((B22*(DAY(EOMONTH(AA20,0))-DAY(AA20))/DAY(EOMONTH(AA20,0))) + (B22*MAX(0,(YEAR(AA2)-YEAR(AA20))*12+MONTH(AA2)-MONTH(AA20)-1)) + (B22*DAY(AA2)/DAY(EOMONTH(AA2,0))),0), 0), 0)</f>
@@ -2527,10 +2513,12 @@
       <c r="A25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="29" t="n">
+        <v>1141001</v>
+      </c>
       <c r="C25" s="5" t="str">
         <f aca="false">IF(AA22&lt;&gt;"", TEXT(AA22, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
-        <v>格式: YYYMMDD</v>
+        <v>民國 114 年 10 月 1 日</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2546,10 +2534,12 @@
       <c r="A26" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="29" t="n">
+        <v>1140930</v>
+      </c>
       <c r="C26" s="5" t="str">
         <f aca="false">IF(AA23&lt;&gt;"", TEXT(AA23, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
-        <v>格式: YYYMMDD</v>
+        <v>民國 114 年 9 月 30 日</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2561,10 +2551,12 @@
       <c r="A27" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="29" t="n">
+        <v>1141029</v>
+      </c>
       <c r="C27" s="5" t="str">
         <f aca="false">IF(AA24&lt;&gt;"", TEXT(AA24, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
-        <v>格式: YYYMMDD</v>
+        <v>民國 114 年 10 月 29 日</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2576,7 +2568,9 @@
       <c r="A28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="29" t="n">
+        <v>50</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -2588,7 +2582,9 @@
       <c r="A29" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="29" t="n">
+        <v>50</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -2600,7 +2596,9 @@
       <c r="A30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="29" t="n">
+        <v>50</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -2616,7 +2614,9 @@
       <c r="A31" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="29" t="n">
+        <v>100</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -2665,20 +2665,21 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="29" t="n">
+      <c r="D35" s="31" t="n">
         <f aca="false">IF(AB8="賣方", E19, 0)</f>
-        <v>2051</v>
-      </c>
-      <c r="E35" s="30" t="n">
+        <v>1854</v>
+      </c>
+      <c r="E35" s="32" t="n">
         <f aca="false">IF(AB8="買方", E19, 0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="31" t="str">
-        <f aca="false">IF(OR(D35&gt;0, E35&gt;0), "找補 " &amp; IF(D35&gt;0, "買方持有期間：" &amp; TEXT(AA2+1-AA4, "e/m/d") &amp; " 至 " &amp; TEXT(DATE(YEAR(AA2),12,31), "e/m/d") &amp; " (共 " &amp; AB11 &amp; IF(AA5,"月","天") &amp; ")。", "賣方持有期間：" &amp; TEXT(DATE(YEAR(AA2),1,1), "e/m/d") &amp; " 至 " &amp; TEXT(AA2, "e/m/d") &amp; " (共 " &amp; AB10 &amp; IF(AA5,"月","天") &amp; ")。"), "無需找補")</f>
-        <v>找補 買方持有期間：114/10/9 至 114/12/31 (共 84天)。</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="F35" s="33" t="str">
+        <f aca="false">IF(OR(D35&gt;0,E35&gt;0), "找補 " &amp; IF(D35&gt;0, "買方持有 " &amp; AB11, "賣方持有 " &amp; AB10) &amp; IF(AA5," 個月", " 天") &amp; "稅額。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(D19,"#,##0") &amp; " * (" &amp; IF(D35&gt;0, AB11, AB10) &amp; " / " &amp; AB3 &amp; ") = " &amp; TEXT(E19,"#,##0"), "無需找補")</f>
+        <v>找補 買方持有 84 天稅額。
+【計算】8,056 * (84 / 365) = 1,854</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
@@ -2686,20 +2687,21 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="29" t="n">
+      <c r="D36" s="31" t="n">
         <f aca="false">IF(AB9="賣方", E20, 0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="30" t="n">
+      <c r="E36" s="32" t="n">
         <f aca="false">IF(AB9="買方", E20, 0)</f>
-        <v>3565</v>
-      </c>
-      <c r="F36" s="31" t="str">
-        <f aca="false">IF(OR(D36&gt;0, E36&gt;0), "找補 " &amp; IF(D36&gt;0, "買方持有期間：" &amp; TEXT(AA2+1-AA4, "e/m/d") &amp; " 至 " &amp; TEXT(AB5, "e/m/d") &amp; " (共 " &amp; AB13 &amp; IF(AA5,"月","天") &amp; ")。", "賣方持有期間：" &amp; TEXT(AB4, "e/m/d") &amp; " 至 " &amp; TEXT(AA2, "e/m/d") &amp; " (共 " &amp; AB12 &amp; IF(AA5,"月","天") &amp; ")。"), "無需找補")</f>
-        <v>找補 賣方持有期間：114/7/1 至 114/10/8 (共 100天)。</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
+        <v>3288</v>
+      </c>
+      <c r="F36" s="33" t="str">
+        <f aca="false">IF(OR(D36&gt;0,E36&gt;0), "找補 " &amp; IF(D36&gt;0, "買方持有 " &amp; AB13, "賣方持有 " &amp; AB12) &amp; IF(AA5," 個月", " 天") &amp; "稅額。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(D20,"#,##0") &amp; " * (" &amp; IF(D36&gt;0, AB13, AB12) &amp; " / " &amp; AB6 &amp; ") = " &amp; TEXT(E20,"#,##0"), "無需找補")</f>
+        <v>找補 賣方持有 100 天稅額。
+【計算】12,000 * (100 / 365) = 3,288</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
@@ -2707,20 +2709,21 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="29" t="n">
+      <c r="D37" s="31" t="n">
         <f aca="false">AB21</f>
         <v>4177</v>
       </c>
-      <c r="E37" s="30" t="n">
+      <c r="E37" s="32" t="n">
         <f aca="false">AB24</f>
         <v>0</v>
       </c>
-      <c r="F37" s="31" t="str">
-        <f aca="false">IF(D37&gt;0, "買方補貼賣方預繳。期間：" &amp; TEXT(AA2+1-AA4, "e/m/d") &amp; " 至 " &amp; TEXT(AA20, "e/m/d") &amp; " (共 " &amp; (AA20-AA2+AA4-1) &amp; " 天)。", IF(E37&gt;0, "賣方補足未繳費用。期間：" &amp; TEXT(AA20+1, "e/m/d") &amp; " 至 " &amp; TEXT(AA2, "e/m/d") &amp; " (共 " &amp; (AA2-AA20) &amp; " 天)。", "無需找補"))</f>
-        <v>買方補貼賣方預繳。期間：114/10/9 至 114/10/31 (共 22 天)。</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
+      <c r="F37" s="33" t="str">
+        <f aca="false">IF(D37&gt;0, "買方補貼賣方預繳 ( " &amp; TEXT(AA20-AA2+AA4, "#,##0") &amp; " 天)。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B22, "#,##0") &amp; " * (" &amp; (AA20-AA2+AA4) &amp; " / " &amp; DAY(EOMONTH(AA2,0)) &amp; ") = " &amp; TEXT(D37, "#,##0"), IF(E37&gt;0, "賣方補足費用 (" &amp; TEXT(AA2-AA20, "#,##0") &amp; " 天)。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B22, "#,##0") &amp; " * (" &amp; (AA2-AA20) &amp; " / " &amp; DAY(EOMONTH(AA20,0)) &amp; ") = " &amp; TEXT(E37, "#,##0"), "無需找補"))</f>
+        <v>買方補貼賣方預繳 ( 23 天)。
+【計算】5,630 * (23 / 31) = 4,177</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
@@ -2728,20 +2731,21 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="29" t="n">
+      <c r="D38" s="31" t="n">
         <f aca="false">AB22</f>
-        <v>890</v>
-      </c>
-      <c r="E38" s="30" t="n">
+        <v>4177</v>
+      </c>
+      <c r="E38" s="32" t="n">
         <f aca="false">AB25</f>
         <v>0</v>
       </c>
-      <c r="F38" s="31" t="str">
-        <f aca="false">IF(D38&gt;0, "買方補貼賣方預繳。期間：" &amp; TEXT(AA2+1-AA4, "e/m/d") &amp; " 至 " &amp; TEXT(AA21, "e/m/d") &amp; " (共 " &amp; (AA21-AA2+AA4-1) &amp; " 天)。", IF(E38&gt;0, "賣方補足未繳費用。期間：" &amp; TEXT(AA21+1, "e/m/d") &amp; " 至 " &amp; TEXT(AA2, "e/m/d") &amp; " (共 " &amp; (AA2-AA21) &amp; " 天)。", "無需找補"))</f>
-        <v>買方補貼賣方預繳。期間：114/10/9 至 114/10/31 (共 22 天)。</v>
-      </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
+      <c r="F38" s="33" t="str">
+        <f aca="false">IF(D38&gt;0, "買方補貼賣方預繳 ( " &amp; TEXT(AA21-AA2+AA4, "#,##0") &amp; " 天)。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B23, "#,##0") &amp; " * (" &amp; (AA21-AA2+AA4) &amp; " / " &amp; DAY(EOMONTH(AA2,0)) &amp; ") = " &amp; TEXT(D38, "#,##0"), IF(E38&gt;0, "賣方補足費用 (" &amp; TEXT(AA2-AA21, "#,##0") &amp; " 天)。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B23, "#,##0") &amp; " * (" &amp; (AA2-AA21) &amp; " / " &amp; DAY(EOMONTH(AA21,0)) &amp; ") = " &amp; TEXT(E38, "#,##0"), "無需找補"))</f>
+        <v>買方補貼賣方預繳 ( 23 天)。
+【計算】5,630 * (23 / 31) = 4,177</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
@@ -2749,20 +2753,20 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="29" t="n">
+      <c r="D39" s="31" t="n">
         <f aca="false">AB30</f>
         <v>0</v>
       </c>
-      <c r="E39" s="30" t="n">
+      <c r="E39" s="32" t="n">
         <f aca="false">AB31</f>
         <v>0</v>
       </c>
-      <c r="F39" s="31" t="str">
-        <f aca="false">IF(D39&gt;0, "買方返還賣方持有期間租金。期間：" &amp; TEXT(AA23, "e/m/d") &amp; " 至 " &amp; TEXT(AA2, "e/m/d") &amp; " (共 " &amp; (AA2-AA23+1) &amp; " 天)。", IF(E39&gt;0, "賣方返還買方持有期間租金。期間：" &amp; TEXT(AA2+1, "e/m/d") &amp; " 至 " &amp; TEXT(AA24, "e/m/d") &amp; " (共 " &amp; (AA24-AA2) &amp; " 天)。", "無需找補"))</f>
+      <c r="F39" s="33" t="str">
+        <f aca="false">IF(D39&gt;0, "買方返還賣方 " &amp; (AA2-AA23+1) &amp; " 天租金。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B24,"#,##0") &amp; " * (" &amp; (AA2-AA23+1) &amp; " / " &amp; (AA24-AA23+1) &amp; ") = " &amp; TEXT(D39,"#,##0"), IF(E39&gt;0, "賣方返還買方 " &amp; (AA24-AA2) &amp; " 天租金。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B24,"#,##0") &amp; " * (" &amp; (AA24-AA2) &amp; " / " &amp; (AA24-AA23+1) &amp; ") = " &amp; TEXT(E39,"#,##0"), "無需找補"))</f>
         <v>無需找補</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
@@ -2770,19 +2774,19 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="29" t="n">
+      <c r="D40" s="31" t="n">
         <f aca="false">SUM(B28:B30)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="30" t="n">
+        <v>150</v>
+      </c>
+      <c r="E40" s="32" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
@@ -2790,19 +2794,19 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="29" t="n">
+      <c r="D41" s="31" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="E41" s="30" t="n">
+      <c r="E41" s="32" t="n">
         <f aca="false">B31</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
@@ -2810,66 +2814,61 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="29" t="n">
+      <c r="D42" s="31" t="n">
         <f aca="false">SUM(D35:D41)</f>
-        <v>7118</v>
-      </c>
-      <c r="E42" s="30" t="n">
+        <v>10358</v>
+      </c>
+      <c r="E42" s="32" t="n">
         <f aca="false">SUM(E35:E41)</f>
-        <v>3565</v>
+        <v>3388</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33" t="str">
+      <c r="B43" s="34"/>
+      <c r="C43" s="35" t="str">
         <f aca="false">IF(D42&gt;E42, "【買方】應支付給【賣方】 NT$ " &amp; TEXT(D42-E42, "#,##0"), IF(E42&gt;D42, "【賣方】應支付給【買方】 NT$ " &amp; TEXT(E42-D42, "#,##0"), "雙方無需找補"))</f>
-        <v>【買方】應支付給【賣方】 NT$ 3,553</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+        <v>【買方】應支付給【賣方】 NT$ 6,970</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-    </row>
-    <row r="47" customFormat="false" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="35"/>
-    </row>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="50">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -2920,7 +2919,6 @@
     <mergeCell ref="A43:B44"/>
     <mergeCell ref="C43:H44"/>
     <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C4" type="list">
@@ -2969,18 +2967,18 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="37" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2" s="38" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2988,100 +2986,100 @@
       <c r="A3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="37" t="n">
+      <c r="B3" s="38" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="37" t="n">
+        <v>71</v>
+      </c>
+      <c r="B4" s="38" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="37" t="n">
+        <v>72</v>
+      </c>
+      <c r="B5" s="38" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="37" t="n">
+        <v>73</v>
+      </c>
+      <c r="B6" s="38" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="37" t="n">
+        <v>74</v>
+      </c>
+      <c r="B7" s="38" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="37" t="n">
+        <v>75</v>
+      </c>
+      <c r="B8" s="38" t="n">
         <v>0.032</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="37" t="n">
+        <v>76</v>
+      </c>
+      <c r="B9" s="38" t="n">
         <v>0.038</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="37" t="n">
+        <v>77</v>
+      </c>
+      <c r="B10" s="38" t="n">
         <v>0.042</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="37" t="n">
+        <v>78</v>
+      </c>
+      <c r="B11" s="38" t="n">
         <v>0.048</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="37" t="n">
+        <v>79</v>
+      </c>
+      <c r="B12" s="38" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="37" t="n">
+        <v>80</v>
+      </c>
+      <c r="B13" s="38" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="37" t="n">
+        <v>81</v>
+      </c>
+      <c r="B14" s="38" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="37"/>
+      <c r="B15" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/交屋稅費計算機pro.xlsx
+++ b/交屋稅費計算機pro.xlsx
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,16 +156,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -214,6 +217,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -679,7 +685,7 @@
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="n">
-        <v>1140905</v>
+        <v>1141008</v>
       </c>
       <c r="D2" s="4">
         <f>IF(AA1&lt;&gt;"", TEXT(AA1, "民國 e 年 m 月 d 日"), "請依左側格式輸入日期")</f>
@@ -712,7 +718,7 @@
       </c>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="3" t="n">
-        <v>1140922</v>
+        <v>1141008</v>
       </c>
       <c r="D3" s="4">
         <f>IF(AA2&lt;&gt;"", TEXT(AA2, "民國 e 年 m 月 d 日"), "請依左側格式輸入日期")</f>
@@ -734,12 +740,12 @@
         </is>
       </c>
       <c r="B4" s="2" t="n"/>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <f>IF(AA5, "【按月分算模式】", "【按日分算模式】") &amp; " 交屋日歸屬：" &amp; IF(C4="是", "買方", "賣方")</f>
         <v/>
       </c>
@@ -757,7 +763,7 @@
       </c>
     </row>
     <row r="5" ht="32" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>（一）稅額計算模式</t>
         </is>
@@ -779,37 +785,37 @@
       </c>
     </row>
     <row r="6" ht="32" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>模式一：多筆地價詳算</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>地號/說明</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>申報地價</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="11" t="inlineStr">
         <is>
           <t>面積(m²)</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>權利範圍</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>土地類型</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>地價總額</t>
         </is>
@@ -821,33 +827,33 @@
       </c>
     </row>
     <row r="7" ht="32" customHeight="1">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>土地 1</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="13" t="inlineStr">
         <is>
           <t>甲地</t>
         </is>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="13" t="n">
         <v>10000</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="E7" s="13" t="inlineStr">
+      <c r="E7" s="14" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>一般用地 (10‰)</t>
         </is>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <f>IFERROR(C7*D7*AA7, "")</f>
         <v/>
       </c>
@@ -862,33 +868,33 @@
       </c>
     </row>
     <row r="8" ht="32" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>土地 2</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>乙地</t>
         </is>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="13" t="n">
         <v>8800</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E8" s="14" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>自用住宅 (2‰)</t>
         </is>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="15">
         <f>IFERROR(C8*D8*AA8, "")</f>
         <v/>
       </c>
@@ -903,17 +909,17 @@
       </c>
     </row>
     <row r="9" ht="32" customHeight="1">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>土地 3</t>
         </is>
       </c>
-      <c r="B9" s="12" t="n"/>
-      <c r="C9" s="12" t="n"/>
-      <c r="D9" s="12" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="12" t="n"/>
-      <c r="G9" s="14">
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="15">
         <f>IFERROR(C9*D9*AA9, "")</f>
         <v/>
       </c>
@@ -934,10 +940,10 @@
         </is>
       </c>
       <c r="B10" s="6" t="n"/>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="16" t="n">
         <v>1700000</v>
       </c>
-      <c r="D10" s="16" t="inlineStr">
+      <c r="D10" s="17" t="inlineStr">
         <is>
           <t>請輸入該縣市的累進起點地價。若留空或填 0，則一般用地將全部以基本稅率(10‰)計算。</t>
         </is>
@@ -976,7 +982,7 @@
         </is>
       </c>
       <c r="B12" s="6" t="n"/>
-      <c r="C12" s="12" t="inlineStr">
+      <c r="C12" s="13" t="inlineStr">
         <is>
           <t>1000000</t>
         </is>
@@ -1002,12 +1008,12 @@
         </is>
       </c>
       <c r="B13" s="6" t="n"/>
-      <c r="C13" s="12" t="inlineStr">
+      <c r="C13" s="13" t="inlineStr">
         <is>
           <t>自住用-全國3戶內 (1.2%)</t>
         </is>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="18">
         <f>IFERROR(VLOOKUP(C13, 稅率表!$A$2:$B$15, 2, FALSE), "")</f>
         <v/>
       </c>
@@ -1025,7 +1031,7 @@
       </c>
     </row>
     <row r="14" ht="32" customHeight="1">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>模式二：快速稅額輸入 (若此區有值，將優先採用)</t>
         </is>
@@ -1044,7 +1050,7 @@
         </is>
       </c>
       <c r="B15" s="6" t="n"/>
-      <c r="C15" s="18" t="n"/>
+      <c r="C15" s="19" t="n"/>
       <c r="AA15">
         <f>AA11+AA14</f>
         <v/>
@@ -1057,14 +1063,14 @@
         </is>
       </c>
       <c r="B16" s="6" t="n"/>
-      <c r="C16" s="18" t="n"/>
+      <c r="C16" s="19" t="n"/>
       <c r="AA16">
         <f>IFERROR(IF(ISNUMBER(FIND("-",C12)), VALUE(LEFT(C12, FIND("-",C12)-1)), C12), C12)</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="32" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>（二）核心稅費計算</t>
         </is>
@@ -1082,94 +1088,94 @@
       </c>
     </row>
     <row r="18" ht="180" customHeight="1">
-      <c r="A18" s="9" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>項目</t>
         </is>
       </c>
-      <c r="B18" s="9" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
         <is>
           <t>賣方持有期間</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>買方持有期間</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
+      <c r="D18" s="10" t="inlineStr">
         <is>
           <t>年度總稅額</t>
         </is>
       </c>
-      <c r="E18" s="9" t="inlineStr">
+      <c r="E18" s="10" t="inlineStr">
         <is>
           <t>找補金額</t>
         </is>
       </c>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="9" t="n"/>
-      <c r="H18" s="9" t="n"/>
+      <c r="F18" s="10" t="n"/>
+      <c r="G18" s="10" t="n"/>
+      <c r="H18" s="10" t="n"/>
       <c r="AA18">
         <f>IF(ISNUMBER(C12), C12, AA16-AA17)</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="180" customHeight="1">
-      <c r="A19" s="19" t="inlineStr">
+      <c r="A19" s="20" t="inlineStr">
         <is>
           <t>地價稅</t>
         </is>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="21">
         <f>IF(AB10&lt;&gt;"", AB10 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v/>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="21">
         <f>IF(AB11&lt;&gt;"", AB11 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v/>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="22">
         <f>AB1</f>
         <v/>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="22">
         <f>IFERROR(IF(AB8="賣方", ROUND(D19*AB11/AB3,0), ROUND(D19*AB10/AB3,0)),0)</f>
         <v/>
       </c>
-      <c r="F19" s="21" t="n"/>
-      <c r="G19" s="21" t="n"/>
-      <c r="H19" s="22">
-        <f>IF(E19=0, "無需找補", "納稅人為【" &amp; AB8 &amp; "】，" &amp; IF(AB8="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "  " &amp; TEXT(D19, "#,##0") &amp; " (年稅額) * " &amp; IF(AB8="賣方", AB11, AB10) &amp; " (天) / " &amp; AB3 &amp; " (總天數) = " &amp; TEXT(E19, "#,##0") &amp; CHAR(10) &amp; "【款項性質】" &amp; CHAR(10) &amp; "  " &amp; "此為民國 " &amp; YEAR(AA2)-1911 &amp; " 年度地價稅找補，屬【" &amp; IF(AA2&gt;DATE(YEAR(AA2),8,31), "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅年度： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 (1/1 ~ 12/31)" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 11 月 1 日 至 11 月 30 日" &amp; CHAR(10) &amp; "● 納稅基準日： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 8 月 31 日" &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB8 &amp; "】 (以基準日之地政登記所有權人為準)")</f>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="n"/>
+      <c r="H19" s="23">
+        <f>IF(E19=0, "無需找補", "納稅人為【" &amp; AB8 &amp; "】，" &amp; IF(AB8="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; "【找補計算】" &amp; CHAR(10) &amp; "  " &amp; TEXT(D19, "#,##0") &amp; " * (" &amp; IF(AB8="賣方", AB11, AB10) &amp; " / " &amp; AB3 &amp; ") = " &amp; TEXT(E19, "#,##0") &amp; CHAR(10) &amp; "【款項性質】" &amp; CHAR(10) &amp; "  " &amp; "此為民國 " &amp; YEAR(AA2)-1911 &amp; " 年度地價稅找補，屬【" &amp; IF(AA2&gt;DATE(YEAR(AA2),8,31), "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅年度： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 (1/1 ~ 12/31)" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 11 月 1 日 至 11 月 30 日" &amp; CHAR(10) &amp; "● 納稅基準日： 民國 " &amp; YEAR(AA2)-1911 &amp; " 年 8 月 31 日" &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB8 &amp; "】 (以基準日之地政登記所有權人為準)")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="32" customHeight="1">
-      <c r="A20" s="19" t="inlineStr">
+      <c r="A20" s="20" t="inlineStr">
         <is>
           <t>房屋稅</t>
         </is>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="24">
         <f>IF(AB12&lt;&gt;"", AB12 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v/>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="24">
         <f>IF(AB13&lt;&gt;"", AB13 &amp; IF(AA5, " 月", " 天"), "")</f>
         <v/>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="22">
         <f>AB2</f>
         <v/>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="22">
         <f>IFERROR(IF(AB9="賣方", ROUND(D20*AB13/AB6,0), ROUND(D20*AB12/AB6,0)),0)</f>
         <v/>
       </c>
-      <c r="F20" s="21" t="n"/>
-      <c r="G20" s="21" t="n"/>
-      <c r="H20" s="22">
-        <f>IF(E20=0, "無需找補", "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; IF(C16="", "【年稅額計算】" &amp; CHAR(10) &amp; "  " &amp; IF(AA17&gt;0, "(" &amp; TEXT(AA16,"#,##0") &amp; "-" &amp; TEXT(AA17,"#,##0") &amp; ")", TEXT(AA18,"#,##0")) &amp; " * " &amp; TEXT(D13,"0.0%") &amp; " = " &amp; TEXT(D20, "#,##0") &amp; CHAR(10), "") &amp; "【找補計算】" &amp; CHAR(10) &amp; "  " &amp; TEXT(D20, "#,##0") &amp; " (年稅額) * " &amp; IF(AB9="賣方", AB13, AB12) &amp; " (天) / " &amp; AB6 &amp; " (總天數) = " &amp; TEXT(E20, "#,##0") &amp; CHAR(10) &amp; "【款項性質】" &amp; CHAR(10) &amp; "  " &amp; "此為民國 " &amp; YEAR(AB5)-1911 &amp; " 年度房屋稅找補，屬【" &amp; IF(AA2&gt;AB7, "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅期間： 民國 " &amp; YEAR(AB4)-1911 &amp; "/7/1 至 " &amp; YEAR(AB5)-1911 &amp; "/6/30" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AB5)-1911 &amp; " 年 5 月 1 日 至 5 月 31 日" &amp; CHAR(10) &amp; "● 納稅基準日： " &amp; TEXT(AB7, "民國 e 年 m 月 d 日") &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB9 &amp; "】 (以基準日之房屋所有權人為準)")</f>
+      <c r="F20" s="22" t="n"/>
+      <c r="G20" s="22" t="n"/>
+      <c r="H20" s="23">
+        <f>IF(E20=0, "無需找補", "納稅人為【" &amp; AB9 &amp; "】，" &amp; IF(AB9="賣方", "由【買方】補貼賣方", "由【賣方】補貼買方") &amp; "。" &amp; CHAR(10) &amp; IF(C16="", "【年稅額計算】" &amp; CHAR(10) &amp; "  " &amp; IF(AA17&gt;0, "(" &amp; TEXT(AA16,"#,##0") &amp; "-" &amp; TEXT(AA17,"#,##0") &amp; ")", TEXT(AA18,"#,##0")) &amp; " * " &amp; TEXT(D13,"0.0%") &amp; " = " &amp; TEXT(D20, "#,##0") &amp; CHAR(10), "") &amp; "【找補計算】" &amp; CHAR(10) &amp; "  " &amp; TEXT(D20, "#,##0") &amp; " * (" &amp; IF(AB9="賣方", AB13, AB12) &amp; " / " &amp; AB6 &amp; ") = " &amp; TEXT(E20, "#,##0") &amp; CHAR(10) &amp; "【款項性質】" &amp; CHAR(10) &amp; "  " &amp; "此為民國 " &amp; YEAR(AB5)-1911 &amp; " 年度房屋稅找補，屬【" &amp; IF(AA2&gt;AB7, "未到期數", "已到期數") &amp; "】款項。" &amp; CHAR(10) &amp; "---" &amp; CHAR(10) &amp; "【稅務規則】" &amp; CHAR(10) &amp; "● 課稅期間： 民國 " &amp; YEAR(AB4)-1911 &amp; "/7/1 至 " &amp; YEAR(AB5)-1911 &amp; "/6/30" &amp; CHAR(10) &amp; "● 開徵期間： 民國 " &amp; YEAR(AB5)-1911 &amp; " 年 5 月 1 日 至 5 月 31 日" &amp; CHAR(10) &amp; "● 納稅基準日： " &amp; TEXT(AB7, "民國 e 年 m 月 d 日") &amp; CHAR(10) &amp; "● 本案納稅人： 【" &amp; AB9 &amp; "】 (以基準日之房屋所有權人為準)")</f>
         <v/>
       </c>
       <c r="AA20">
@@ -1178,7 +1184,7 @@
       </c>
     </row>
     <row r="21" ht="32" customHeight="1">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>（三）其他費用分算 (輸入區)</t>
         </is>
@@ -1200,20 +1206,20 @@
       </c>
     </row>
     <row r="22" ht="32" customHeight="1">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="A22" s="12" t="inlineStr">
         <is>
           <t>管理費(月)</t>
         </is>
       </c>
-      <c r="B22" s="24" t="n"/>
-      <c r="C22" s="11" t="n"/>
-      <c r="D22" s="11" t="inlineStr">
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="12" t="n"/>
+      <c r="D22" s="12" t="inlineStr">
         <is>
           <t>管理費已預繳至</t>
         </is>
       </c>
-      <c r="E22" s="11" t="n"/>
-      <c r="F22" s="24" t="n"/>
+      <c r="E22" s="12" t="n"/>
+      <c r="F22" s="26" t="n"/>
       <c r="G22" s="4">
         <f>IF(AA20&lt;&gt;"", TEXT(AA20, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v/>
@@ -1229,20 +1235,20 @@
       </c>
     </row>
     <row r="23" ht="32" customHeight="1">
-      <c r="A23" s="11" t="inlineStr">
+      <c r="A23" s="12" t="inlineStr">
         <is>
           <t>車位費(月)</t>
         </is>
       </c>
-      <c r="B23" s="24" t="n"/>
-      <c r="C23" s="11" t="n"/>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="12" t="n"/>
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>車位費已預繳至</t>
         </is>
       </c>
-      <c r="E23" s="11" t="n"/>
-      <c r="F23" s="24" t="n"/>
+      <c r="E23" s="12" t="n"/>
+      <c r="F23" s="26" t="n"/>
       <c r="G23" s="4">
         <f>IF(AA21&lt;&gt;"", TEXT(AA21, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v/>
@@ -1254,18 +1260,18 @@
       </c>
     </row>
     <row r="24" ht="32" customHeight="1">
-      <c r="A24" s="11" t="inlineStr">
+      <c r="A24" s="12" t="inlineStr">
         <is>
           <t>租金(月)</t>
         </is>
       </c>
-      <c r="B24" s="24" t="n"/>
-      <c r="C24" s="11" t="n"/>
-      <c r="D24" s="11" t="n"/>
-      <c r="E24" s="11" t="n"/>
-      <c r="F24" s="11" t="n"/>
-      <c r="G24" s="11" t="n"/>
-      <c r="H24" s="11" t="n"/>
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="12" t="n"/>
+      <c r="D24" s="12" t="n"/>
+      <c r="E24" s="12" t="n"/>
+      <c r="F24" s="12" t="n"/>
+      <c r="G24" s="12" t="n"/>
+      <c r="H24" s="12" t="n"/>
       <c r="AA24">
         <f>IFERROR(IF(LEN(B27)=7, DATE(VALUE(LEFT(B27,3))+1911, VALUE(MID(B27,4,2)), VALUE(RIGHT(B27,2))), IF(LEN(B27)=6, DATE(VALUE(LEFT(B27,2))+1911, VALUE(MID(B27,3,2)), VALUE(RIGHT(B27,2))), "")), "")</f>
         <v/>
@@ -1276,12 +1282,12 @@
       </c>
     </row>
     <row r="25" ht="32" customHeight="1">
-      <c r="A25" s="11" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>租金收款日</t>
         </is>
       </c>
-      <c r="B25" s="24" t="n"/>
+      <c r="B25" s="26" t="n"/>
       <c r="C25" s="4">
         <f>IF(AA22&lt;&gt;"", TEXT(AA22, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v/>
@@ -1297,12 +1303,12 @@
       </c>
     </row>
     <row r="26" ht="32" customHeight="1">
-      <c r="A26" s="11" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
         <is>
           <t>租金期間(起)</t>
         </is>
       </c>
-      <c r="B26" s="24" t="n"/>
+      <c r="B26" s="26" t="n"/>
       <c r="C26" s="4">
         <f>IF(AA23&lt;&gt;"", TEXT(AA23, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v/>
@@ -1314,12 +1320,12 @@
       <c r="H26" s="4" t="n"/>
     </row>
     <row r="27" ht="32" customHeight="1">
-      <c r="A27" s="11" t="inlineStr">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>租金期間(迄)</t>
         </is>
       </c>
-      <c r="B27" s="24" t="n"/>
+      <c r="B27" s="26" t="n"/>
       <c r="C27" s="4">
         <f>IF(AA24&lt;&gt;"", TEXT(AA24, "民國 e 年 m 月 d 日"), "格式: YYYMMDD")</f>
         <v/>
@@ -1331,64 +1337,64 @@
       <c r="H27" s="4" t="n"/>
     </row>
     <row r="28" ht="32" customHeight="1">
-      <c r="A28" s="11" t="inlineStr">
+      <c r="A28" s="12" t="inlineStr">
         <is>
           <t>水費溢繳</t>
         </is>
       </c>
-      <c r="B28" s="24" t="n"/>
-      <c r="C28" s="11" t="n"/>
-      <c r="D28" s="11" t="n"/>
-      <c r="E28" s="11" t="n"/>
-      <c r="F28" s="11" t="n"/>
-      <c r="G28" s="11" t="n"/>
-      <c r="H28" s="11" t="n"/>
+      <c r="B28" s="25" t="n"/>
+      <c r="C28" s="12" t="n"/>
+      <c r="D28" s="12" t="n"/>
+      <c r="E28" s="12" t="n"/>
+      <c r="F28" s="12" t="n"/>
+      <c r="G28" s="12" t="n"/>
+      <c r="H28" s="12" t="n"/>
     </row>
     <row r="29" ht="32" customHeight="1">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>電費溢繳</t>
         </is>
       </c>
-      <c r="B29" s="24" t="n"/>
-      <c r="C29" s="11" t="n"/>
-      <c r="D29" s="11" t="n"/>
-      <c r="E29" s="11" t="n"/>
-      <c r="F29" s="11" t="n"/>
-      <c r="G29" s="11" t="n"/>
-      <c r="H29" s="11" t="n"/>
+      <c r="B29" s="25" t="n"/>
+      <c r="C29" s="12" t="n"/>
+      <c r="D29" s="12" t="n"/>
+      <c r="E29" s="12" t="n"/>
+      <c r="F29" s="12" t="n"/>
+      <c r="G29" s="12" t="n"/>
+      <c r="H29" s="12" t="n"/>
     </row>
     <row r="30" ht="32" customHeight="1">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="A30" s="12" t="inlineStr">
         <is>
           <t>瓦斯費溢繳</t>
         </is>
       </c>
-      <c r="B30" s="24" t="n"/>
-      <c r="C30" s="11" t="n"/>
-      <c r="D30" s="11" t="n"/>
-      <c r="E30" s="11" t="n"/>
-      <c r="F30" s="11" t="n"/>
-      <c r="G30" s="11" t="n"/>
-      <c r="H30" s="11" t="n"/>
+      <c r="B30" s="25" t="n"/>
+      <c r="C30" s="12" t="n"/>
+      <c r="D30" s="12" t="n"/>
+      <c r="E30" s="12" t="n"/>
+      <c r="F30" s="12" t="n"/>
+      <c r="G30" s="12" t="n"/>
+      <c r="H30" s="12" t="n"/>
       <c r="AB30">
         <f>IFERROR(IF(AND(C4="是", B24&gt;0, AA24&gt;=AA2, AA23&lt;=AA2, AA22&gt;=AA2), ROUND(B24 * (AA2-AA23+1) / (AA24-AA23+1), 0), 0), 0)</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="32" customHeight="1">
-      <c r="A31" s="11" t="inlineStr">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>押金/保證金</t>
         </is>
       </c>
-      <c r="B31" s="24" t="n"/>
-      <c r="C31" s="11" t="n"/>
-      <c r="D31" s="11" t="n"/>
-      <c r="E31" s="11" t="n"/>
-      <c r="F31" s="11" t="n"/>
-      <c r="G31" s="11" t="n"/>
-      <c r="H31" s="11" t="n"/>
+      <c r="B31" s="25" t="n"/>
+      <c r="C31" s="12" t="n"/>
+      <c r="D31" s="12" t="n"/>
+      <c r="E31" s="12" t="n"/>
+      <c r="F31" s="12" t="n"/>
+      <c r="G31" s="12" t="n"/>
+      <c r="H31" s="12" t="n"/>
       <c r="AB31">
         <f>IFERROR(IF(AND(C4="是", B24&gt;0, AA24&gt;=AA2, AA23&lt;=AA2, AA22&lt;AA2), ROUND(B24 * (AA24-AA2) / (AA24-AA23+1), 0), 0), 0)</f>
         <v/>
@@ -1396,7 +1402,7 @@
     </row>
     <row r="32" ht="32" customHeight="1"/>
     <row r="33" ht="32" customHeight="1">
-      <c r="A33" s="8" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>（四）最終結算</t>
         </is>
@@ -1410,30 +1416,30 @@
       <c r="H33" s="6" t="n"/>
     </row>
     <row r="34" ht="32" customHeight="1">
-      <c r="A34" s="9" t="inlineStr">
+      <c r="A34" s="10" t="inlineStr">
         <is>
           <t>項目</t>
         </is>
       </c>
-      <c r="B34" s="9" t="n"/>
-      <c r="C34" s="9" t="n"/>
-      <c r="D34" s="9" t="inlineStr">
+      <c r="B34" s="10" t="n"/>
+      <c r="C34" s="10" t="n"/>
+      <c r="D34" s="10" t="inlineStr">
         <is>
           <t>買方應付給賣方</t>
         </is>
       </c>
-      <c r="E34" s="9" t="inlineStr">
+      <c r="E34" s="10" t="inlineStr">
         <is>
           <t>賣方應付給買方</t>
         </is>
       </c>
-      <c r="F34" s="9" t="inlineStr">
+      <c r="F34" s="10" t="inlineStr">
         <is>
           <t>說明</t>
         </is>
       </c>
-      <c r="G34" s="9" t="n"/>
-      <c r="H34" s="9" t="n"/>
+      <c r="G34" s="10" t="n"/>
+      <c r="H34" s="10" t="n"/>
     </row>
     <row r="35" ht="32" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
@@ -1443,20 +1449,20 @@
       </c>
       <c r="B35" s="4" t="n"/>
       <c r="C35" s="4" t="n"/>
-      <c r="D35" s="25">
+      <c r="D35" s="27">
         <f>IF(AB8="賣方", E19, 0)</f>
         <v/>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="28">
         <f>IF(AB8="買方", E19, 0)</f>
         <v/>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="29">
         <f>IF(OR(D35&gt;0,E35&gt;0), "找補 " &amp; IF(D35&gt;0, "買方持有 " &amp; AB11, "賣方持有 " &amp; AB10) &amp; IF(AA5," 個月", " 天") &amp; "稅額。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(D19,"#,##0") &amp; " * (" &amp; IF(D35&gt;0, AB11, AB10) &amp; " / " &amp; AB3 &amp; ") = " &amp; TEXT(E19,"#,##0"), "無需找補")</f>
         <v/>
       </c>
-      <c r="G35" s="27" t="n"/>
-      <c r="H35" s="27" t="n"/>
+      <c r="G35" s="29" t="n"/>
+      <c r="H35" s="29" t="n"/>
     </row>
     <row r="36" ht="32" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
@@ -1466,20 +1472,20 @@
       </c>
       <c r="B36" s="4" t="n"/>
       <c r="C36" s="4" t="n"/>
-      <c r="D36" s="25">
+      <c r="D36" s="27">
         <f>IF(AB9="賣方", E20, 0)</f>
         <v/>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="28">
         <f>IF(AB9="買方", E20, 0)</f>
         <v/>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="29">
         <f>IF(OR(D36&gt;0,E36&gt;0), "找補 " &amp; IF(D36&gt;0, "買方持有 " &amp; AB13, "賣方持有 " &amp; AB12) &amp; IF(AA5," 個月", " 天") &amp; "稅額。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(D20,"#,##0") &amp; " * (" &amp; IF(D36&gt;0, AB13, AB12) &amp; " / " &amp; AB6 &amp; ") = " &amp; TEXT(E20,"#,##0"), "無需找補")</f>
         <v/>
       </c>
-      <c r="G36" s="27" t="n"/>
-      <c r="H36" s="27" t="n"/>
+      <c r="G36" s="29" t="n"/>
+      <c r="H36" s="29" t="n"/>
     </row>
     <row r="37" ht="32" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
@@ -1489,20 +1495,20 @@
       </c>
       <c r="B37" s="4" t="n"/>
       <c r="C37" s="4" t="n"/>
-      <c r="D37" s="25">
+      <c r="D37" s="27">
         <f>AB21</f>
         <v/>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="28">
         <f>AB24</f>
         <v/>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="29">
         <f>IF(D37&gt;0, "買方補貼賣方預繳 ( " &amp; TEXT(AA20-AA2+AA4, "#,##0") &amp; " 天)。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B22, "#,##0") &amp; " * (" &amp; (AA20-AA2+AA4) &amp; " / " &amp; DAY(EOMONTH(AA2,0)) &amp; ") = " &amp; TEXT(D37, "#,##0"), IF(E37&gt;0, "賣方補足費用 (" &amp; TEXT(AA2-AA20, "#,##0") &amp; " 天)。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B22, "#,##0") &amp; " * (" &amp; (AA2-AA20) &amp; " / " &amp; DAY(EOMONTH(AA20,0)) &amp; ") = " &amp; TEXT(E37, "#,##0"), "無需找補"))</f>
         <v/>
       </c>
-      <c r="G37" s="27" t="n"/>
-      <c r="H37" s="27" t="n"/>
+      <c r="G37" s="29" t="n"/>
+      <c r="H37" s="29" t="n"/>
     </row>
     <row r="38" ht="32" customHeight="1">
       <c r="A38" s="4" t="inlineStr">
@@ -1512,20 +1518,20 @@
       </c>
       <c r="B38" s="4" t="n"/>
       <c r="C38" s="4" t="n"/>
-      <c r="D38" s="25">
+      <c r="D38" s="27">
         <f>AB22</f>
         <v/>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="28">
         <f>AB25</f>
         <v/>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="29">
         <f>IF(D38&gt;0, "買方補貼賣方預繳 ( " &amp; TEXT(AA21-AA2+AA4, "#,##0") &amp; " 天)。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B23, "#,##0") &amp; " * (" &amp; (AA21-AA2+AA4) &amp; " / " &amp; DAY(EOMONTH(AA2,0)) &amp; ") = " &amp; TEXT(D38, "#,##0"), IF(E38&gt;0, "賣方補足費用 (" &amp; TEXT(AA2-AA21, "#,##0") &amp; " 天)。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B23, "#,##0") &amp; " * (" &amp; (AA2-AA21) &amp; " / " &amp; DAY(EOMONTH(AA21,0)) &amp; ") = " &amp; TEXT(E38, "#,##0"), "無需找補"))</f>
         <v/>
       </c>
-      <c r="G38" s="27" t="n"/>
-      <c r="H38" s="27" t="n"/>
+      <c r="G38" s="29" t="n"/>
+      <c r="H38" s="29" t="n"/>
     </row>
     <row r="39" ht="32" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
@@ -1535,20 +1541,20 @@
       </c>
       <c r="B39" s="4" t="n"/>
       <c r="C39" s="4" t="n"/>
-      <c r="D39" s="25">
+      <c r="D39" s="27">
         <f>AB30</f>
         <v/>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="28">
         <f>AB31</f>
         <v/>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="29">
         <f>IF(D39&gt;0, "買方返還賣方 " &amp; (AA2-AA23+1) &amp; " 天租金。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B24,"#,##0") &amp; " * (" &amp; (AA2-AA23+1) &amp; " / " &amp; (AA24-AA23+1) &amp; ") = " &amp; TEXT(D39,"#,##0"), IF(E39&gt;0, "賣方返還買方 " &amp; (AA24-AA2) &amp; " 天租金。" &amp; CHAR(10) &amp; "【計算】" &amp; TEXT(B24,"#,##0") &amp; " * (" &amp; (AA24-AA2) &amp; " / " &amp; (AA24-AA23+1) &amp; ") = " &amp; TEXT(E39,"#,##0"), "無需找補"))</f>
         <v/>
       </c>
-      <c r="G39" s="27" t="n"/>
-      <c r="H39" s="27" t="n"/>
+      <c r="G39" s="29" t="n"/>
+      <c r="H39" s="29" t="n"/>
     </row>
     <row r="40" ht="32" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
@@ -1558,21 +1564,21 @@
       </c>
       <c r="B40" s="4" t="n"/>
       <c r="C40" s="4" t="n"/>
-      <c r="D40" s="25">
+      <c r="D40" s="27">
         <f>SUM(B28:B30)</f>
         <v/>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="28">
         <f>0</f>
         <v/>
       </c>
-      <c r="F40" s="27" t="inlineStr">
+      <c r="F40" s="29" t="inlineStr">
         <is>
           <t>買方補貼賣方已溢繳之費用</t>
         </is>
       </c>
-      <c r="G40" s="27" t="n"/>
-      <c r="H40" s="27" t="n"/>
+      <c r="G40" s="29" t="n"/>
+      <c r="H40" s="29" t="n"/>
     </row>
     <row r="41" ht="55" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
@@ -1582,21 +1588,21 @@
       </c>
       <c r="B41" s="4" t="n"/>
       <c r="C41" s="4" t="n"/>
-      <c r="D41" s="25">
+      <c r="D41" s="27">
         <f>0</f>
         <v/>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="28">
         <f>B31</f>
         <v/>
       </c>
-      <c r="F41" s="27" t="inlineStr">
+      <c r="F41" s="29" t="inlineStr">
         <is>
           <t>賣方將原持有之押金轉交給新屋主(買方)</t>
         </is>
       </c>
-      <c r="G41" s="27" t="n"/>
-      <c r="H41" s="27" t="n"/>
+      <c r="G41" s="29" t="n"/>
+      <c r="H41" s="29" t="n"/>
     </row>
     <row r="42" ht="32" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
@@ -1606,11 +1612,11 @@
       </c>
       <c r="B42" s="4" t="n"/>
       <c r="C42" s="4" t="n"/>
-      <c r="D42" s="25">
+      <c r="D42" s="27">
         <f>SUM(D35:D41)</f>
         <v/>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="28">
         <f>SUM(E35:E41)</f>
         <v/>
       </c>
@@ -1619,35 +1625,35 @@
       <c r="H42" s="6" t="n"/>
     </row>
     <row r="43" ht="32" customHeight="1">
-      <c r="A43" s="28" t="inlineStr">
+      <c r="A43" s="30" t="inlineStr">
         <is>
           <t>最終結算結果</t>
         </is>
       </c>
-      <c r="B43" s="29" t="n"/>
-      <c r="C43" s="30">
+      <c r="B43" s="31" t="n"/>
+      <c r="C43" s="32">
         <f>IF(D42&gt;E42, "【買方】應支付給【賣方】 NT$ " &amp; TEXT(D42-E42, "#,##0"), IF(E42&gt;D42, "【賣方】應支付給【買方】 NT$ " &amp; TEXT(E42-D42, "#,##0"), "雙方無需找補"))</f>
         <v/>
       </c>
-      <c r="D43" s="29" t="n"/>
-      <c r="E43" s="29" t="n"/>
-      <c r="F43" s="29" t="n"/>
-      <c r="G43" s="29" t="n"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="D43" s="31" t="n"/>
+      <c r="E43" s="31" t="n"/>
+      <c r="F43" s="31" t="n"/>
+      <c r="G43" s="31" t="n"/>
+      <c r="H43" s="31" t="n"/>
     </row>
     <row r="44" ht="32" customHeight="1">
-      <c r="A44" s="29" t="n"/>
-      <c r="B44" s="29" t="n"/>
-      <c r="C44" s="29" t="n"/>
-      <c r="D44" s="29" t="n"/>
-      <c r="E44" s="29" t="n"/>
-      <c r="F44" s="29" t="n"/>
-      <c r="G44" s="29" t="n"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="A44" s="31" t="n"/>
+      <c r="B44" s="31" t="n"/>
+      <c r="C44" s="31" t="n"/>
+      <c r="D44" s="31" t="n"/>
+      <c r="E44" s="31" t="n"/>
+      <c r="F44" s="31" t="n"/>
+      <c r="G44" s="31" t="n"/>
+      <c r="H44" s="31" t="n"/>
     </row>
     <row r="45" ht="32" customHeight="1"/>
     <row r="46" ht="32" customHeight="1">
-      <c r="A46" s="31" t="inlineStr">
+      <c r="A46" s="33" t="inlineStr">
         <is>
           <t>工具開發：陳定康</t>
         </is>
@@ -1747,12 +1753,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>房屋使用情境選項</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="34" t="inlineStr">
         <is>
           <t>對應稅率</t>
         </is>
@@ -1764,7 +1770,7 @@
           <t>自住用-全國單一自住(現值一定金額下) (1.0%)</t>
         </is>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="35" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1774,7 +1780,7 @@
           <t>自住用-全國3戶內 (1.2%)</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="35" t="n">
         <v>0.012</v>
       </c>
     </row>
@@ -1784,7 +1790,7 @@
           <t>公益出租人/社會住宅 (1.2%)</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="35" t="n">
         <v>0.012</v>
       </c>
     </row>
@@ -1794,7 +1800,7 @@
           <t>非自住-出租(達租金標準)/繼承共有-4戶內 (1.5%)</t>
         </is>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="35" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -1804,7 +1810,7 @@
           <t>非自住-出租(達租金標準)/繼承共有-5~6戶 (2.0%)</t>
         </is>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="35" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1814,7 +1820,7 @@
           <t>非自住-出租(達租金標準)/繼承共有-7戶以上 (2.4%)</t>
         </is>
       </c>
-      <c r="B7" s="33" t="n">
+      <c r="B7" s="35" t="n">
         <v>0.024</v>
       </c>
     </row>
@@ -1824,7 +1830,7 @@
           <t>非自住-其他住家用-2戶內 (3.2%)</t>
         </is>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="35" t="n">
         <v>0.032</v>
       </c>
     </row>
@@ -1834,7 +1840,7 @@
           <t>非自住-其他住家用-3~4戶 (3.8%)</t>
         </is>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="35" t="n">
         <v>0.038</v>
       </c>
     </row>
@@ -1844,7 +1850,7 @@
           <t>非自住-其他住家用-5~6戶 (4.2%)</t>
         </is>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="35" t="n">
         <v>0.042</v>
       </c>
     </row>
@@ -1854,7 +1860,7 @@
           <t>非自住-其他住家用-7戶以上 (4.8%)</t>
         </is>
       </c>
-      <c r="B11" s="33" t="n">
+      <c r="B11" s="35" t="n">
         <v>0.048</v>
       </c>
     </row>
@@ -1864,7 +1870,7 @@
           <t>營業用 (3.0%)</t>
         </is>
       </c>
-      <c r="B12" s="33" t="n">
+      <c r="B12" s="35" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1874,7 +1880,7 @@
           <t>私人醫院/診所/事務所用 (3.0%)</t>
         </is>
       </c>
-      <c r="B13" s="33" t="n">
+      <c r="B13" s="35" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1884,12 +1890,12 @@
           <t>非住家非營業用(人民團體等) (2.0%)</t>
         </is>
       </c>
-      <c r="B14" s="33" t="n">
+      <c r="B14" s="35" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="33" t="n"/>
+      <c r="B15" s="35" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
